--- a/data/hestia/processingAid.xlsx
+++ b/data/hestia/processingAid.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="445" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="458" uniqueCount="175">
   <si>
     <t xml:space="preserve">term.id</t>
   </si>
@@ -175,6 +175,9 @@
     <t xml:space="preserve">https://en.wikipedia.org/wiki/Aluminium_chlorohydrate</t>
   </si>
   <si>
+    <t xml:space="preserve">https://glossary.ecoinvent.org/ids/29f75a6a-e5cd-40f6-8f84-797deb0ef98c</t>
+  </si>
+  <si>
     <t xml:space="preserve">Cellulose powder (processing aid)</t>
   </si>
   <si>
@@ -217,6 +220,9 @@
     <t xml:space="preserve">http://aims.fao.org/aos/agrovoc/c_3720</t>
   </si>
   <si>
+    <t xml:space="preserve">https://glossary.ecoinvent.org/ids/3ab60559-40d3-42e4-9cac-476a519098fa</t>
+  </si>
+  <si>
     <t xml:space="preserve">Sodium carbonate (processing aid)</t>
   </si>
   <si>
@@ -256,6 +262,9 @@
     <t xml:space="preserve"> http://aims.fao.org/aos/agrovoc/c_24125</t>
   </si>
   <si>
+    <t xml:space="preserve">https://glossary.ecoinvent.org/ids/1f1eca90-d90c-40ea-bcbb-1c821e3bfa0d</t>
+  </si>
+  <si>
     <t xml:space="preserve">Albumin</t>
   </si>
   <si>
@@ -316,6 +325,9 @@
     <t xml:space="preserve">http://aims.fao.org/aos/agrovoc/c_1197</t>
   </si>
   <si>
+    <t xml:space="preserve">https://glossary.ecoinvent.org/ids/cb08ad19-9bff-5101-95f6-73c9e58ee1ff</t>
+  </si>
+  <si>
     <t xml:space="preserve">Carbon dioxide (processing aid)</t>
   </si>
   <si>
@@ -337,6 +349,9 @@
     <t xml:space="preserve">http://aims.fao.org/aos/agrovoc/c_1302</t>
   </si>
   <si>
+    <t xml:space="preserve">https://glossary.ecoinvent.org/ids/cc67a5bb-8085-58f6-9ff2-23890e454f10</t>
+  </si>
+  <si>
     <t xml:space="preserve">Nitrogen (processing aid)</t>
   </si>
   <si>
@@ -358,6 +373,9 @@
     <t xml:space="preserve">http://aims.fao.org/aos/agrovoc/c_5192</t>
   </si>
   <si>
+    <t xml:space="preserve">https://glossary.ecoinvent.org/ids/159edf36-233e-4e2c-aec0-b0ac0d49f528</t>
+  </si>
+  <si>
     <t xml:space="preserve">Activated carbon</t>
   </si>
   <si>
@@ -379,6 +397,9 @@
     <t xml:space="preserve">https://aims.fao.org/aos/agrovoc/c_15934.html</t>
   </si>
   <si>
+    <t xml:space="preserve">https://glossary.ecoinvent.org/ids/99ba8208-7a4c-46e7-b4f0-6d93a8332c0b</t>
+  </si>
+  <si>
     <t xml:space="preserve">Bleaching earth</t>
   </si>
   <si>
@@ -409,6 +430,9 @@
     <t xml:space="preserve">density</t>
   </si>
   <si>
+    <t xml:space="preserve">https://glossary.ecoinvent.org/ids/039d3944-e16b-4baf-8153-35752757a05d</t>
+  </si>
+  <si>
     <t xml:space="preserve">Phosphoric acid (processing aid)</t>
   </si>
   <si>
@@ -427,6 +451,9 @@
     <t xml:space="preserve">https://pubchem.ncbi.nlm.nih.gov/compound/1004</t>
   </si>
   <si>
+    <t xml:space="preserve">https://glossary.ecoinvent.org/ids/6abd94ee-c078-4163-8ba0-acbc45aa9423</t>
+  </si>
+  <si>
     <t xml:space="preserve">Sodium hydroxide (processing aid)</t>
   </si>
   <si>
@@ -448,6 +475,9 @@
     <t xml:space="preserve">http://aims.fao.org/aos/agrovoc/c_16040</t>
   </si>
   <si>
+    <t xml:space="preserve">https://glossary.ecoinvent.org/ids/61396bcb-bf35-411a-a6a6-8543ccef83e8</t>
+  </si>
+  <si>
     <t xml:space="preserve">Sulphuric acid (processing aid)</t>
   </si>
   <si>
@@ -469,6 +499,9 @@
     <t xml:space="preserve">http://aims.fao.org/aos/agrovoc/c_7517 </t>
   </si>
   <si>
+    <t xml:space="preserve">https://glossary.ecoinvent.org/ids/9d63da75-8289-4b96-a900-67ec3bd40a16</t>
+  </si>
+  <si>
     <t xml:space="preserve">Calcium carbide (processing aid)</t>
   </si>
   <si>
@@ -487,6 +520,9 @@
     <t xml:space="preserve">http://aims.fao.org/aos/agrovoc/c_15883</t>
   </si>
   <si>
+    <t xml:space="preserve">https://glossary.ecoinvent.org/ids/b2c3da99-4052-4e12-b38f-4efee8371432</t>
+  </si>
+  <si>
     <t xml:space="preserve">Nitric acid (processing aid)</t>
   </si>
   <si>
@@ -506,6 +542,9 @@
   </si>
   <si>
     <t xml:space="preserve">http://aims.fao.org/aos/agrovoc/c_5188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://glossary.ecoinvent.org/ids/68db7412-ba35-488b-8a45-9a9f48448522</t>
   </si>
 </sst>
 </file>
@@ -517,7 +556,7 @@
     <numFmt numFmtId="165" formatCode="General"/>
     <numFmt numFmtId="166" formatCode="@"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -550,27 +589,6 @@
     </font>
     <font>
       <b val="true"/>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <u val="single"/>
-      <sz val="11"/>
-      <color rgb="FF0563C1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -618,7 +636,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="21">
+  <cellStyleXfs count="20">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -642,80 +660,60 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="11">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="7" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
-  <cellStyles count="7">
+  <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Comma" xfId="15" builtinId="3"/>
     <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
     <cellStyle name="Currency" xfId="17" builtinId="4"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
-    <cellStyle name="*unknown*" xfId="20" builtinId="8"/>
   </cellStyles>
   <colors>
     <indexedColors>
@@ -741,7 +739,7 @@
       <rgbColor rgb="FFCCFFFF"/>
       <rgbColor rgb="FF660066"/>
       <rgbColor rgb="FFFF8080"/>
-      <rgbColor rgb="FF0563C1"/>
+      <rgbColor rgb="FF0066CC"/>
       <rgbColor rgb="FFDAE3F3"/>
       <rgbColor rgb="FF000080"/>
       <rgbColor rgb="FFFF00FF"/>
@@ -792,57 +790,58 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="E1" activeCellId="0" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="M1" activeCellId="0" sqref="M1"/>
+      <selection pane="bottomRight" activeCell="N33" activeCellId="0" sqref="N33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8515625" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="24.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="2.65"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="26"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="5.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="39"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="10.51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="3" width="26"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="3" width="5.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="3" width="39"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="3" width="10.51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="50.19"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="3" t="s">
+    <row r="1" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="5" t="s">
+      <c r="B1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="I1" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="J1" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="K1" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="L1" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="M1" s="6" t="s">
         <v>12</v>
       </c>
       <c r="N1" s="6" t="s">
@@ -885,7 +884,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="str">
         <f aca="false">CLEAN(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B2,"--","-"),"ħ","h"),"å","a"),"æ","ae"),"Ġ","g"),"Č","c"),"ě","e"),"ň","n"),"š","s"),"ě","e"),"ň","n"),"ž","z"),"ř","r"),"č","c"),"ġ","g"),"Ñ","N"),"À","A"),"Á","A"),"Â","A"),"Ã","A"),"Ä","A"),"Ç","C"),"È","E"),"É","E"),"Ê","E"),"Ë","E"),"Ì","I"),"Í","I"),"Î","I"),"Ï","I"),"Ò","O"),"Ó","O"),"Ô","O"),"Õ","O"),"Ö","O"),"Š","S"),"Ú","U"),"Û","U"),"Ü","U"),"Ù","U"),"Ý","Y"),"Ÿ","Y"),"Ž","Z"),"/",""),"\","")," ",""),",",""),"%",""),"®",""),"&amp;",""),"*",""),"+",""),":",""),"#",""),"-",""),"&lt;",""),"&gt;",""))</f>
         <v>processingAidUnspecified</v>
@@ -894,80 +893,80 @@
         <f aca="false">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(REPLACE(PROPER(C2),1,1,LOWER(LEFT(C2,1))),"(",""),")",""),"á","a"),"é","e"),"í","i"),"ó","o"),"ú","u"),"ã","a"),"ê","e"),"â","a"),"é","e"),"è","e"),"î","i"),"ï","i"),"ç","c"),"ä","a"),"ö","o"),"ü","u"),"ß","ss"),"ş","s"),"ı","i"),"ğ","g"),"ę","e"),"ł","l"),"ń","n"),"ś","s"),"ż","z"),"ã","a"),"ầ","a"),"à","a"),"ậ","a"),"đ","d"),"ế","e"),"ì","i"),"í","i"),"ổ","o"),"ô","o"),"ư","u"),"ả","a"),"ế","e"),"ĩ","i"),"ợ","o"),"ồ","o"),"ạ","a"),"ứ","u"),"ý","y"),"ạ","a"),"é","e"),"ỳ","y"),"ế","e"),"ể","e"),"ệ","e"),"ù","u"),"ë","e"),".",""),"Ġ","g"),"ø","o"),"ñ","n"),"'",""),"ō","o")</f>
         <v>processing Aid, Unspecified</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="C2" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="D2" s="0" t="s">
+      <c r="D2" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="E2" s="0" t="s">
+      <c r="E2" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="F2" s="0" t="s">
+      <c r="F2" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="G2" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="H2" s="8" t="s">
+      <c r="G2" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="H2" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="I2" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="J2" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="K2" s="8" t="s">
+      <c r="I2" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="J2" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="K2" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="L2" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="M2" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="N2" s="5"/>
-      <c r="O2" s="9" t="s">
+      <c r="L2" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="M2" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="N2" s="6"/>
+      <c r="O2" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="P2" s="10" t="b">
+      <c r="P2" s="9" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="Q2" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="R2" s="9" t="s">
+      <c r="Q2" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="R2" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="S2" s="10" t="b">
+      <c r="S2" s="9" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="T2" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="U2" s="9" t="s">
+      <c r="T2" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="U2" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="V2" s="9" t="s">
+      <c r="V2" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="W2" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="X2" s="9" t="s">
+      <c r="W2" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="X2" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="Y2" s="9" t="s">
+      <c r="Y2" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="Z2" s="9" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Z2" s="8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="str">
         <f aca="false">CLEAN(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B3,"--","-"),"ħ","h"),"å","a"),"æ","ae"),"Ġ","g"),"Č","c"),"ě","e"),"ň","n"),"š","s"),"ě","e"),"ň","n"),"ž","z"),"ř","r"),"č","c"),"ġ","g"),"Ñ","N"),"À","A"),"Á","A"),"Â","A"),"Ã","A"),"Ä","A"),"Ç","C"),"È","E"),"É","E"),"Ê","E"),"Ë","E"),"Ì","I"),"Í","I"),"Î","I"),"Ï","I"),"Ò","O"),"Ó","O"),"Ô","O"),"Õ","O"),"Ö","O"),"Š","S"),"Ú","U"),"Û","U"),"Ü","U"),"Ù","U"),"Ý","Y"),"Ÿ","Y"),"Ž","Z"),"/",""),"\","")," ",""),",",""),"%",""),"®",""),"&amp;",""),"*",""),"+",""),":",""),"#",""),"-",""),"&lt;",""),"&gt;",""))</f>
         <v>polyacrylamideProcessingAid</v>
@@ -976,79 +975,79 @@
         <f aca="false">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(REPLACE(PROPER(C3),1,1,LOWER(LEFT(C3,1))),"(",""),")",""),"á","a"),"é","e"),"í","i"),"ó","o"),"ú","u"),"ã","a"),"ê","e"),"â","a"),"é","e"),"è","e"),"î","i"),"ï","i"),"ç","c"),"ä","a"),"ö","o"),"ü","u"),"ß","ss"),"ş","s"),"ı","i"),"ğ","g"),"ę","e"),"ł","l"),"ń","n"),"ś","s"),"ż","z"),"ã","a"),"ầ","a"),"à","a"),"ậ","a"),"đ","d"),"ế","e"),"ì","i"),"í","i"),"ổ","o"),"ô","o"),"ư","u"),"ả","a"),"ế","e"),"ĩ","i"),"ợ","o"),"ồ","o"),"ạ","a"),"ứ","u"),"ý","y"),"ạ","a"),"é","e"),"ỳ","y"),"ế","e"),"ể","e"),"ệ","e"),"ù","u"),"ë","e"),".",""),"Ġ","g"),"ø","o"),"ñ","n"),"'",""),"ō","o")</f>
         <v>polyacrylamide Processing Aid</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="C3" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="D3" s="0" t="s">
+      <c r="D3" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="E3" s="0" t="s">
+      <c r="E3" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="F3" s="0" t="s">
+      <c r="F3" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="G3" s="0" t="s">
+      <c r="G3" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="H3" s="8" t="s">
+      <c r="H3" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="I3" s="11" t="s">
+      <c r="I3" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="J3" s="8" t="s">
+      <c r="J3" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="K3" s="8" t="s">
+      <c r="K3" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="L3" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="M3" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="O3" s="9" t="s">
+      <c r="L3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="O3" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="P3" s="10" t="b">
+      <c r="P3" s="9" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="Q3" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="R3" s="9" t="s">
+      <c r="Q3" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="R3" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="S3" s="10" t="b">
+      <c r="S3" s="9" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="T3" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="U3" s="9" t="s">
+      <c r="T3" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="U3" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="V3" s="9" t="s">
+      <c r="V3" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="W3" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="X3" s="9" t="s">
+      <c r="W3" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="X3" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="Y3" s="9" t="s">
+      <c r="Y3" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="Z3" s="9" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Z3" s="8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="str">
         <f aca="false">CLEAN(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B4,"--","-"),"ħ","h"),"å","a"),"æ","ae"),"Ġ","g"),"Č","c"),"ě","e"),"ň","n"),"š","s"),"ě","e"),"ň","n"),"ž","z"),"ř","r"),"č","c"),"ġ","g"),"Ñ","N"),"À","A"),"Á","A"),"Â","A"),"Ã","A"),"Ä","A"),"Ç","C"),"È","E"),"É","E"),"Ê","E"),"Ë","E"),"Ì","I"),"Í","I"),"Î","I"),"Ï","I"),"Ò","O"),"Ó","O"),"Ô","O"),"Õ","O"),"Ö","O"),"Š","S"),"Ú","U"),"Û","U"),"Ü","U"),"Ù","U"),"Ý","Y"),"Ÿ","Y"),"Ž","Z"),"/",""),"\","")," ",""),",",""),"%",""),"®",""),"&amp;",""),"*",""),"+",""),":",""),"#",""),"-",""),"&lt;",""),"&gt;",""))</f>
         <v>aluminiumChlorohydrate</v>
@@ -1057,79 +1056,82 @@
         <f aca="false">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(REPLACE(PROPER(C4),1,1,LOWER(LEFT(C4,1))),"(",""),")",""),"á","a"),"é","e"),"í","i"),"ó","o"),"ú","u"),"ã","a"),"ê","e"),"â","a"),"é","e"),"è","e"),"î","i"),"ï","i"),"ç","c"),"ä","a"),"ö","o"),"ü","u"),"ß","ss"),"ş","s"),"ı","i"),"ğ","g"),"ę","e"),"ł","l"),"ń","n"),"ś","s"),"ż","z"),"ã","a"),"ầ","a"),"à","a"),"ậ","a"),"đ","d"),"ế","e"),"ì","i"),"í","i"),"ổ","o"),"ô","o"),"ư","u"),"ả","a"),"ế","e"),"ĩ","i"),"ợ","o"),"ồ","o"),"ạ","a"),"ứ","u"),"ý","y"),"ạ","a"),"é","e"),"ỳ","y"),"ế","e"),"ể","e"),"ệ","e"),"ù","u"),"ë","e"),".",""),"Ġ","g"),"ø","o"),"ñ","n"),"'",""),"ō","o")</f>
         <v>aluminium Chlorohydrate</v>
       </c>
-      <c r="C4" s="0" t="s">
+      <c r="C4" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="D4" s="0" t="s">
+      <c r="D4" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="E4" s="0" t="s">
+      <c r="E4" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="F4" s="0" t="s">
+      <c r="F4" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="G4" s="0" t="s">
+      <c r="G4" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="H4" s="8" t="s">
+      <c r="H4" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="I4" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="J4" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="K4" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="L4" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="M4" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="O4" s="9" t="s">
+      <c r="I4" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="M4" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="N4" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="O4" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="P4" s="10" t="b">
+      <c r="P4" s="9" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="Q4" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="R4" s="9" t="s">
+      <c r="Q4" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="R4" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="S4" s="10" t="b">
+      <c r="S4" s="9" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="T4" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="U4" s="9" t="s">
+      <c r="T4" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="U4" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="V4" s="9" t="s">
+      <c r="V4" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="W4" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="X4" s="9" t="s">
+      <c r="W4" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="X4" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="Y4" s="9" t="s">
+      <c r="Y4" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="Z4" s="9" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Z4" s="8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="str">
         <f aca="false">CLEAN(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B5,"--","-"),"ħ","h"),"å","a"),"æ","ae"),"Ġ","g"),"Č","c"),"ě","e"),"ň","n"),"š","s"),"ě","e"),"ň","n"),"ž","z"),"ř","r"),"č","c"),"ġ","g"),"Ñ","N"),"À","A"),"Á","A"),"Â","A"),"Ã","A"),"Ä","A"),"Ç","C"),"È","E"),"É","E"),"Ê","E"),"Ë","E"),"Ì","I"),"Í","I"),"Î","I"),"Ï","I"),"Ò","O"),"Ó","O"),"Ô","O"),"Õ","O"),"Ö","O"),"Š","S"),"Ú","U"),"Û","U"),"Ü","U"),"Ù","U"),"Ý","Y"),"Ÿ","Y"),"Ž","Z"),"/",""),"\","")," ",""),",",""),"%",""),"®",""),"&amp;",""),"*",""),"+",""),":",""),"#",""),"-",""),"&lt;",""),"&gt;",""))</f>
         <v>cellulosePowderProcessingAid</v>
@@ -1138,79 +1140,79 @@
         <f aca="false">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(REPLACE(PROPER(C5),1,1,LOWER(LEFT(C5,1))),"(",""),")",""),"á","a"),"é","e"),"í","i"),"ó","o"),"ú","u"),"ã","a"),"ê","e"),"â","a"),"é","e"),"è","e"),"î","i"),"ï","i"),"ç","c"),"ä","a"),"ö","o"),"ü","u"),"ß","ss"),"ş","s"),"ı","i"),"ğ","g"),"ę","e"),"ł","l"),"ń","n"),"ś","s"),"ż","z"),"ã","a"),"ầ","a"),"à","a"),"ậ","a"),"đ","d"),"ế","e"),"ì","i"),"í","i"),"ổ","o"),"ô","o"),"ư","u"),"ả","a"),"ế","e"),"ĩ","i"),"ợ","o"),"ồ","o"),"ạ","a"),"ứ","u"),"ý","y"),"ạ","a"),"é","e"),"ỳ","y"),"ế","e"),"ể","e"),"ệ","e"),"ù","u"),"ë","e"),".",""),"Ġ","g"),"ø","o"),"ñ","n"),"'",""),"ō","o")</f>
         <v>cellulose Powder Processing Aid</v>
       </c>
-      <c r="C5" s="0" t="s">
-        <v>51</v>
-      </c>
-      <c r="D5" s="0" t="s">
+      <c r="C5" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D5" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="E5" s="0" t="s">
-        <v>52</v>
-      </c>
-      <c r="F5" s="0" t="s">
+      <c r="E5" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="G5" s="0" t="s">
+      <c r="F5" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G5" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="H5" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="I5" s="0" t="s">
+      <c r="H5" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="J5" s="8" t="s">
+      <c r="I5" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="K5" s="8" t="s">
+      <c r="J5" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="L5" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="M5" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="O5" s="9" t="s">
+      <c r="K5" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="M5" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="O5" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="P5" s="10" t="b">
+      <c r="P5" s="9" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="Q5" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="R5" s="9" t="s">
+      <c r="Q5" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="R5" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="S5" s="10" t="b">
+      <c r="S5" s="9" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="T5" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="U5" s="9" t="s">
+      <c r="T5" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="U5" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="V5" s="9" t="s">
+      <c r="V5" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="W5" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="X5" s="9" t="s">
+      <c r="W5" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="X5" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="Y5" s="9" t="s">
+      <c r="Y5" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="Z5" s="9" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Z5" s="8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="str">
         <f aca="false">CLEAN(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B6,"--","-"),"ħ","h"),"å","a"),"æ","ae"),"Ġ","g"),"Č","c"),"ě","e"),"ň","n"),"š","s"),"ě","e"),"ň","n"),"ž","z"),"ř","r"),"č","c"),"ġ","g"),"Ñ","N"),"À","A"),"Á","A"),"Â","A"),"Ã","A"),"Ä","A"),"Ç","C"),"È","E"),"É","E"),"Ê","E"),"Ë","E"),"Ì","I"),"Í","I"),"Î","I"),"Ï","I"),"Ò","O"),"Ó","O"),"Ô","O"),"Õ","O"),"Ö","O"),"Š","S"),"Ú","U"),"Û","U"),"Ü","U"),"Ù","U"),"Ý","Y"),"Ÿ","Y"),"Ž","Z"),"/",""),"\","")," ",""),",",""),"%",""),"®",""),"&amp;",""),"*",""),"+",""),":",""),"#",""),"-",""),"&lt;",""),"&gt;",""))</f>
         <v>hydrochloricAcidProcessingAid</v>
@@ -1219,79 +1221,82 @@
         <f aca="false">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(REPLACE(PROPER(C6),1,1,LOWER(LEFT(C6,1))),"(",""),")",""),"á","a"),"é","e"),"í","i"),"ó","o"),"ú","u"),"ã","a"),"ê","e"),"â","a"),"é","e"),"è","e"),"î","i"),"ï","i"),"ç","c"),"ä","a"),"ö","o"),"ü","u"),"ß","ss"),"ş","s"),"ı","i"),"ğ","g"),"ę","e"),"ł","l"),"ń","n"),"ś","s"),"ż","z"),"ã","a"),"ầ","a"),"à","a"),"ậ","a"),"đ","d"),"ế","e"),"ì","i"),"í","i"),"ổ","o"),"ô","o"),"ư","u"),"ả","a"),"ế","e"),"ĩ","i"),"ợ","o"),"ồ","o"),"ạ","a"),"ứ","u"),"ý","y"),"ạ","a"),"é","e"),"ỳ","y"),"ế","e"),"ể","e"),"ệ","e"),"ù","u"),"ë","e"),".",""),"Ġ","g"),"ø","o"),"ñ","n"),"'",""),"ō","o")</f>
         <v>hydrochloric Acid Processing Aid</v>
       </c>
-      <c r="C6" s="0" t="s">
-        <v>58</v>
-      </c>
-      <c r="D6" s="0" t="s">
+      <c r="C6" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D6" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="E6" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="F6" s="0" t="s">
+      <c r="E6" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="G6" s="0" t="s">
+      <c r="F6" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="G6" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="H6" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="I6" s="0" t="s">
+      <c r="H6" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="J6" s="8" t="s">
+      <c r="I6" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="K6" s="8" t="s">
+      <c r="J6" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="L6" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="M6" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="O6" s="9" t="s">
+      <c r="K6" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="L6" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="M6" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="N6" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="O6" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="P6" s="10" t="b">
+      <c r="P6" s="9" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="Q6" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="R6" s="9" t="s">
+      <c r="Q6" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="R6" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="S6" s="10" t="b">
+      <c r="S6" s="9" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="T6" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="U6" s="9" t="s">
+      <c r="T6" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="U6" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="V6" s="9" t="s">
+      <c r="V6" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="W6" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="X6" s="9" t="s">
+      <c r="W6" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="X6" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="Y6" s="9" t="s">
+      <c r="Y6" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="Z6" s="9" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Z6" s="8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="str">
         <f aca="false">CLEAN(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B7,"--","-"),"ħ","h"),"å","a"),"æ","ae"),"Ġ","g"),"Č","c"),"ě","e"),"ň","n"),"š","s"),"ě","e"),"ň","n"),"ž","z"),"ř","r"),"č","c"),"ġ","g"),"Ñ","N"),"À","A"),"Á","A"),"Â","A"),"Ã","A"),"Ä","A"),"Ç","C"),"È","E"),"É","E"),"Ê","E"),"Ë","E"),"Ì","I"),"Í","I"),"Î","I"),"Ï","I"),"Ò","O"),"Ó","O"),"Ô","O"),"Õ","O"),"Ö","O"),"Š","S"),"Ú","U"),"Û","U"),"Ü","U"),"Ù","U"),"Ý","Y"),"Ÿ","Y"),"Ž","Z"),"/",""),"\","")," ",""),",",""),"%",""),"®",""),"&amp;",""),"*",""),"+",""),":",""),"#",""),"-",""),"&lt;",""),"&gt;",""))</f>
         <v>sodiumCarbonateProcessingAid</v>
@@ -1300,79 +1305,79 @@
         <f aca="false">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(REPLACE(PROPER(C7),1,1,LOWER(LEFT(C7,1))),"(",""),")",""),"á","a"),"é","e"),"í","i"),"ó","o"),"ú","u"),"ã","a"),"ê","e"),"â","a"),"é","e"),"è","e"),"î","i"),"ï","i"),"ç","c"),"ä","a"),"ö","o"),"ü","u"),"ß","ss"),"ş","s"),"ı","i"),"ğ","g"),"ę","e"),"ł","l"),"ń","n"),"ś","s"),"ż","z"),"ã","a"),"ầ","a"),"à","a"),"ậ","a"),"đ","d"),"ế","e"),"ì","i"),"í","i"),"ổ","o"),"ô","o"),"ư","u"),"ả","a"),"ế","e"),"ĩ","i"),"ợ","o"),"ồ","o"),"ạ","a"),"ứ","u"),"ý","y"),"ạ","a"),"é","e"),"ỳ","y"),"ế","e"),"ể","e"),"ệ","e"),"ù","u"),"ë","e"),".",""),"Ġ","g"),"ø","o"),"ñ","n"),"'",""),"ō","o")</f>
         <v>sodium Carbonate Processing Aid</v>
       </c>
-      <c r="C7" s="0" t="s">
-        <v>65</v>
-      </c>
-      <c r="D7" s="0" t="s">
+      <c r="C7" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D7" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="E7" s="0" t="s">
-        <v>66</v>
-      </c>
-      <c r="F7" s="0" t="s">
-        <v>67</v>
-      </c>
-      <c r="G7" s="0" t="s">
+      <c r="E7" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="G7" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="H7" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="I7" s="0" t="s">
-        <v>69</v>
-      </c>
-      <c r="J7" s="8" t="s">
+      <c r="H7" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="K7" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="L7" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="M7" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="O7" s="9" t="s">
+      <c r="I7" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="K7" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="L7" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="M7" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="O7" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="P7" s="10" t="b">
+      <c r="P7" s="9" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="Q7" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="R7" s="9" t="s">
+      <c r="Q7" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="R7" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="S7" s="10" t="b">
+      <c r="S7" s="9" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="T7" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="U7" s="9" t="s">
+      <c r="T7" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="U7" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="V7" s="9" t="s">
+      <c r="V7" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="W7" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="X7" s="9" t="s">
+      <c r="W7" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="X7" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="Y7" s="9" t="s">
+      <c r="Y7" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="Z7" s="9" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Z7" s="8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="str">
         <f aca="false">CLEAN(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B8,"--","-"),"ħ","h"),"å","a"),"æ","ae"),"Ġ","g"),"Č","c"),"ě","e"),"ň","n"),"š","s"),"ě","e"),"ň","n"),"ž","z"),"ř","r"),"č","c"),"ġ","g"),"Ñ","N"),"À","A"),"Á","A"),"Â","A"),"Ã","A"),"Ä","A"),"Ç","C"),"È","E"),"É","E"),"Ê","E"),"Ë","E"),"Ì","I"),"Í","I"),"Î","I"),"Ï","I"),"Ò","O"),"Ó","O"),"Ô","O"),"Õ","O"),"Ö","O"),"Š","S"),"Ú","U"),"Û","U"),"Ü","U"),"Ù","U"),"Ý","Y"),"Ÿ","Y"),"Ž","Z"),"/",""),"\","")," ",""),",",""),"%",""),"®",""),"&amp;",""),"*",""),"+",""),":",""),"#",""),"-",""),"&lt;",""),"&gt;",""))</f>
         <v>perliteProcessingAid</v>
@@ -1381,79 +1386,82 @@
         <f aca="false">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(REPLACE(PROPER(C8),1,1,LOWER(LEFT(C8,1))),"(",""),")",""),"á","a"),"é","e"),"í","i"),"ó","o"),"ú","u"),"ã","a"),"ê","e"),"â","a"),"é","e"),"è","e"),"î","i"),"ï","i"),"ç","c"),"ä","a"),"ö","o"),"ü","u"),"ß","ss"),"ş","s"),"ı","i"),"ğ","g"),"ę","e"),"ł","l"),"ń","n"),"ś","s"),"ż","z"),"ã","a"),"ầ","a"),"à","a"),"ậ","a"),"đ","d"),"ế","e"),"ì","i"),"í","i"),"ổ","o"),"ô","o"),"ư","u"),"ả","a"),"ế","e"),"ĩ","i"),"ợ","o"),"ồ","o"),"ạ","a"),"ứ","u"),"ý","y"),"ạ","a"),"é","e"),"ỳ","y"),"ế","e"),"ể","e"),"ệ","e"),"ù","u"),"ë","e"),".",""),"Ġ","g"),"ø","o"),"ñ","n"),"'",""),"ō","o")</f>
         <v>perlite Processing Aid</v>
       </c>
-      <c r="C8" s="0" t="s">
-        <v>71</v>
-      </c>
-      <c r="D8" s="0" t="s">
+      <c r="C8" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="D8" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="E8" s="0" t="s">
-        <v>72</v>
-      </c>
-      <c r="F8" s="0" t="s">
-        <v>73</v>
-      </c>
-      <c r="G8" s="0" t="s">
+      <c r="E8" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="G8" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="H8" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="I8" s="0" t="s">
-        <v>75</v>
-      </c>
-      <c r="J8" s="8" t="s">
+      <c r="H8" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="K8" s="8" t="s">
+      <c r="I8" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="L8" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="M8" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="O8" s="9" t="s">
+      <c r="J8" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="L8" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="M8" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="N8" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="O8" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="P8" s="10" t="b">
+      <c r="P8" s="9" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="Q8" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="R8" s="9" t="s">
+      <c r="Q8" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="R8" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="S8" s="9" t="b">
+      <c r="S8" s="8" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="T8" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="U8" s="9" t="s">
+      <c r="T8" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="U8" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="V8" s="9" t="s">
+      <c r="V8" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="W8" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="X8" s="9" t="s">
+      <c r="W8" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="X8" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="Y8" s="9" t="s">
+      <c r="Y8" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="Z8" s="9" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Z8" s="8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="str">
         <f aca="false">CLEAN(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B9,"--","-"),"ħ","h"),"å","a"),"æ","ae"),"Ġ","g"),"Č","c"),"ě","e"),"ň","n"),"š","s"),"ě","e"),"ň","n"),"ž","z"),"ř","r"),"č","c"),"ġ","g"),"Ñ","N"),"À","A"),"Á","A"),"Â","A"),"Ã","A"),"Ä","A"),"Ç","C"),"È","E"),"É","E"),"Ê","E"),"Ë","E"),"Ì","I"),"Í","I"),"Î","I"),"Ï","I"),"Ò","O"),"Ó","O"),"Ô","O"),"Õ","O"),"Ö","O"),"Š","S"),"Ú","U"),"Û","U"),"Ü","U"),"Ù","U"),"Ý","Y"),"Ÿ","Y"),"Ž","Z"),"/",""),"\","")," ",""),",",""),"%",""),"®",""),"&amp;",""),"*",""),"+",""),":",""),"#",""),"-",""),"&lt;",""),"&gt;",""))</f>
         <v>albumin</v>
@@ -1462,79 +1470,79 @@
         <f aca="false">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(REPLACE(PROPER(C9),1,1,LOWER(LEFT(C9,1))),"(",""),")",""),"á","a"),"é","e"),"í","i"),"ó","o"),"ú","u"),"ã","a"),"ê","e"),"â","a"),"é","e"),"è","e"),"î","i"),"ï","i"),"ç","c"),"ä","a"),"ö","o"),"ü","u"),"ß","ss"),"ş","s"),"ı","i"),"ğ","g"),"ę","e"),"ł","l"),"ń","n"),"ś","s"),"ż","z"),"ã","a"),"ầ","a"),"à","a"),"ậ","a"),"đ","d"),"ế","e"),"ì","i"),"í","i"),"ổ","o"),"ô","o"),"ư","u"),"ả","a"),"ế","e"),"ĩ","i"),"ợ","o"),"ồ","o"),"ạ","a"),"ứ","u"),"ý","y"),"ạ","a"),"é","e"),"ỳ","y"),"ế","e"),"ể","e"),"ệ","e"),"ù","u"),"ë","e"),".",""),"Ġ","g"),"ø","o"),"ñ","n"),"'",""),"ō","o")</f>
         <v>albumin</v>
       </c>
-      <c r="C9" s="0" t="s">
-        <v>78</v>
-      </c>
-      <c r="D9" s="0" t="s">
+      <c r="C9" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D9" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="E9" s="0" t="s">
-        <v>79</v>
-      </c>
-      <c r="F9" s="0" t="s">
-        <v>80</v>
-      </c>
-      <c r="G9" s="0" t="s">
+      <c r="E9" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="G9" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="H9" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="I9" s="0" t="s">
-        <v>82</v>
-      </c>
-      <c r="J9" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="K9" s="8" t="s">
+      <c r="H9" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="L9" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="M9" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="O9" s="9" t="s">
+      <c r="I9" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="K9" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="L9" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="M9" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="O9" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="P9" s="10" t="b">
+      <c r="P9" s="9" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="Q9" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="R9" s="9" t="s">
+      <c r="Q9" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="R9" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="S9" s="9" t="b">
+      <c r="S9" s="8" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="T9" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="U9" s="9" t="s">
+      <c r="T9" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="U9" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="V9" s="9" t="s">
+      <c r="V9" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="W9" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="X9" s="9" t="s">
+      <c r="W9" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="X9" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="Y9" s="9" t="s">
+      <c r="Y9" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="Z9" s="9" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Z9" s="8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="str">
         <f aca="false">CLEAN(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B10,"--","-"),"ħ","h"),"å","a"),"æ","ae"),"Ġ","g"),"Č","c"),"ě","e"),"ň","n"),"š","s"),"ě","e"),"ň","n"),"ž","z"),"ř","r"),"č","c"),"ġ","g"),"Ñ","N"),"À","A"),"Á","A"),"Â","A"),"Ã","A"),"Ä","A"),"Ç","C"),"È","E"),"É","E"),"Ê","E"),"Ë","E"),"Ì","I"),"Í","I"),"Î","I"),"Ï","I"),"Ò","O"),"Ó","O"),"Ô","O"),"Õ","O"),"Ö","O"),"Š","S"),"Ú","U"),"Û","U"),"Ü","U"),"Ù","U"),"Ý","Y"),"Ÿ","Y"),"Ž","Z"),"/",""),"\","")," ",""),",",""),"%",""),"®",""),"&amp;",""),"*",""),"+",""),":",""),"#",""),"-",""),"&lt;",""),"&gt;",""))</f>
         <v>aluminiumSulphateProcessingAid</v>
@@ -1543,79 +1551,79 @@
         <f aca="false">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(REPLACE(PROPER(C10),1,1,LOWER(LEFT(C10,1))),"(",""),")",""),"á","a"),"é","e"),"í","i"),"ó","o"),"ú","u"),"ã","a"),"ê","e"),"â","a"),"é","e"),"è","e"),"î","i"),"ï","i"),"ç","c"),"ä","a"),"ö","o"),"ü","u"),"ß","ss"),"ş","s"),"ı","i"),"ğ","g"),"ę","e"),"ł","l"),"ń","n"),"ś","s"),"ż","z"),"ã","a"),"ầ","a"),"à","a"),"ậ","a"),"đ","d"),"ế","e"),"ì","i"),"í","i"),"ổ","o"),"ô","o"),"ư","u"),"ả","a"),"ế","e"),"ĩ","i"),"ợ","o"),"ồ","o"),"ạ","a"),"ứ","u"),"ý","y"),"ạ","a"),"é","e"),"ỳ","y"),"ế","e"),"ể","e"),"ệ","e"),"ù","u"),"ë","e"),".",""),"Ġ","g"),"ø","o"),"ñ","n"),"'",""),"ō","o")</f>
         <v>aluminium Sulphate Processing Aid</v>
       </c>
-      <c r="C10" s="0" t="s">
-        <v>85</v>
-      </c>
-      <c r="D10" s="0" t="s">
+      <c r="C10" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="D10" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="E10" s="0" t="s">
-        <v>86</v>
-      </c>
-      <c r="F10" s="0" t="s">
-        <v>87</v>
-      </c>
-      <c r="G10" s="0" t="s">
+      <c r="E10" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="G10" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="H10" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="I10" s="0" t="s">
-        <v>89</v>
-      </c>
-      <c r="J10" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="K10" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="L10" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="M10" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="O10" s="9" t="s">
+      <c r="H10" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="K10" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="L10" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="M10" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="O10" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="P10" s="10" t="b">
+      <c r="P10" s="9" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="Q10" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="R10" s="9" t="s">
+      <c r="Q10" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="R10" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="S10" s="9" t="b">
+      <c r="S10" s="8" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="T10" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="U10" s="9" t="s">
+      <c r="T10" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="U10" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="V10" s="9" t="s">
+      <c r="V10" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="W10" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="X10" s="9" t="s">
+      <c r="W10" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="X10" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="Y10" s="9" t="s">
+      <c r="Y10" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="Z10" s="9" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Z10" s="8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="str">
         <f aca="false">CLEAN(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B11,"--","-"),"ħ","h"),"å","a"),"æ","ae"),"Ġ","g"),"Č","c"),"ě","e"),"ň","n"),"š","s"),"ě","e"),"ň","n"),"ž","z"),"ř","r"),"č","c"),"ġ","g"),"Ñ","N"),"À","A"),"Á","A"),"Â","A"),"Ã","A"),"Ä","A"),"Ç","C"),"È","E"),"É","E"),"Ê","E"),"Ë","E"),"Ì","I"),"Í","I"),"Î","I"),"Ï","I"),"Ò","O"),"Ó","O"),"Ô","O"),"Õ","O"),"Ö","O"),"Š","S"),"Ú","U"),"Û","U"),"Ü","U"),"Ù","U"),"Ý","Y"),"Ÿ","Y"),"Ž","Z"),"/",""),"\","")," ",""),",",""),"%",""),"®",""),"&amp;",""),"*",""),"+",""),":",""),"#",""),"-",""),"&lt;",""),"&gt;",""))</f>
         <v>calciumCarbonateProcessingAid</v>
@@ -1624,79 +1632,82 @@
         <f aca="false">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(REPLACE(PROPER(C11),1,1,LOWER(LEFT(C11,1))),"(",""),")",""),"á","a"),"é","e"),"í","i"),"ó","o"),"ú","u"),"ã","a"),"ê","e"),"â","a"),"é","e"),"è","e"),"î","i"),"ï","i"),"ç","c"),"ä","a"),"ö","o"),"ü","u"),"ß","ss"),"ş","s"),"ı","i"),"ğ","g"),"ę","e"),"ł","l"),"ń","n"),"ś","s"),"ż","z"),"ã","a"),"ầ","a"),"à","a"),"ậ","a"),"đ","d"),"ế","e"),"ì","i"),"í","i"),"ổ","o"),"ô","o"),"ư","u"),"ả","a"),"ế","e"),"ĩ","i"),"ợ","o"),"ồ","o"),"ạ","a"),"ứ","u"),"ý","y"),"ạ","a"),"é","e"),"ỳ","y"),"ế","e"),"ể","e"),"ệ","e"),"ù","u"),"ë","e"),".",""),"Ġ","g"),"ø","o"),"ñ","n"),"'",""),"ō","o")</f>
         <v>calcium Carbonate Processing Aid</v>
       </c>
-      <c r="C11" s="0" t="s">
-        <v>91</v>
-      </c>
-      <c r="D11" s="0" t="s">
+      <c r="C11" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="D11" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="E11" s="0" t="s">
-        <v>92</v>
-      </c>
-      <c r="F11" s="0" t="s">
-        <v>93</v>
-      </c>
-      <c r="G11" s="0" t="s">
+      <c r="E11" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="G11" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="H11" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="I11" s="0" t="s">
-        <v>95</v>
-      </c>
-      <c r="J11" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="K11" s="8" t="s">
+      <c r="H11" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="L11" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="M11" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="O11" s="9" t="s">
+      <c r="I11" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="K11" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="L11" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="M11" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="N11" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="O11" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="P11" s="9" t="b">
+      <c r="P11" s="8" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="Q11" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="R11" s="9" t="s">
+      <c r="Q11" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="R11" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="S11" s="9" t="b">
+      <c r="S11" s="8" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="T11" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="U11" s="9" t="s">
+      <c r="T11" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="U11" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="V11" s="9" t="s">
+      <c r="V11" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="W11" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="X11" s="9" t="s">
+      <c r="W11" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="X11" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="Y11" s="9" t="s">
+      <c r="Y11" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="Z11" s="9" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Z11" s="8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="str">
         <f aca="false">CLEAN(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B12,"--","-"),"ħ","h"),"å","a"),"æ","ae"),"Ġ","g"),"Č","c"),"ě","e"),"ň","n"),"š","s"),"ě","e"),"ň","n"),"ž","z"),"ř","r"),"č","c"),"ġ","g"),"Ñ","N"),"À","A"),"Á","A"),"Â","A"),"Ã","A"),"Ä","A"),"Ç","C"),"È","E"),"É","E"),"Ê","E"),"Ë","E"),"Ì","I"),"Í","I"),"Î","I"),"Ï","I"),"Ò","O"),"Ó","O"),"Ô","O"),"Õ","O"),"Ö","O"),"Š","S"),"Ú","U"),"Û","U"),"Ü","U"),"Ù","U"),"Ý","Y"),"Ÿ","Y"),"Ž","Z"),"/",""),"\","")," ",""),",",""),"%",""),"®",""),"&amp;",""),"*",""),"+",""),":",""),"#",""),"-",""),"&lt;",""),"&gt;",""))</f>
         <v>carbonDioxideProcessingAid</v>
@@ -1705,80 +1716,82 @@
         <f aca="false">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(REPLACE(PROPER(C12),1,1,LOWER(LEFT(C12,1))),"(",""),")",""),"á","a"),"é","e"),"í","i"),"ó","o"),"ú","u"),"ã","a"),"ê","e"),"â","a"),"é","e"),"è","e"),"î","i"),"ï","i"),"ç","c"),"ä","a"),"ö","o"),"ü","u"),"ß","ss"),"ş","s"),"ı","i"),"ğ","g"),"ę","e"),"ł","l"),"ń","n"),"ś","s"),"ż","z"),"ã","a"),"ầ","a"),"à","a"),"ậ","a"),"đ","d"),"ế","e"),"ì","i"),"í","i"),"ổ","o"),"ô","o"),"ư","u"),"ả","a"),"ế","e"),"ĩ","i"),"ợ","o"),"ồ","o"),"ạ","a"),"ứ","u"),"ý","y"),"ạ","a"),"é","e"),"ỳ","y"),"ế","e"),"ể","e"),"ệ","e"),"ù","u"),"ë","e"),".",""),"Ġ","g"),"ø","o"),"ñ","n"),"'",""),"ō","o")</f>
         <v>carbon Dioxide Processing Aid</v>
       </c>
-      <c r="C12" s="0" t="s">
-        <v>98</v>
-      </c>
-      <c r="D12" s="0" t="s">
+      <c r="C12" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="D12" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="E12" s="11" t="s">
-        <v>99</v>
-      </c>
-      <c r="F12" s="0" t="s">
-        <v>100</v>
-      </c>
-      <c r="G12" s="0" t="s">
+      <c r="E12" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="G12" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="H12" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="I12" s="0" t="s">
-        <v>102</v>
-      </c>
-      <c r="J12" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="K12" s="8" t="s">
-        <v>104</v>
-      </c>
-      <c r="L12" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="M12" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="N12" s="12"/>
-      <c r="O12" s="9" t="s">
+      <c r="H12" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="K12" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="L12" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="M12" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="N12" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="O12" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="P12" s="9" t="b">
+      <c r="P12" s="8" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="Q12" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="R12" s="9" t="s">
+      <c r="Q12" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="R12" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="S12" s="9" t="b">
+      <c r="S12" s="8" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="T12" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="U12" s="9" t="s">
+      <c r="T12" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="U12" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="V12" s="9" t="s">
+      <c r="V12" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="W12" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="X12" s="9" t="s">
+      <c r="W12" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="X12" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="Y12" s="9" t="s">
+      <c r="Y12" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="Z12" s="9" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Z12" s="8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="str">
         <f aca="false">CLEAN(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B13,"--","-"),"ħ","h"),"å","a"),"æ","ae"),"Ġ","g"),"Č","c"),"ě","e"),"ň","n"),"š","s"),"ě","e"),"ň","n"),"ž","z"),"ř","r"),"č","c"),"ġ","g"),"Ñ","N"),"À","A"),"Á","A"),"Â","A"),"Ã","A"),"Ä","A"),"Ç","C"),"È","E"),"É","E"),"Ê","E"),"Ë","E"),"Ì","I"),"Í","I"),"Î","I"),"Ï","I"),"Ò","O"),"Ó","O"),"Ô","O"),"Õ","O"),"Ö","O"),"Š","S"),"Ú","U"),"Û","U"),"Ü","U"),"Ù","U"),"Ý","Y"),"Ÿ","Y"),"Ž","Z"),"/",""),"\","")," ",""),",",""),"%",""),"®",""),"&amp;",""),"*",""),"+",""),":",""),"#",""),"-",""),"&lt;",""),"&gt;",""))</f>
         <v>nitrogenProcessingAid</v>
@@ -1787,80 +1800,82 @@
         <f aca="false">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(REPLACE(PROPER(C13),1,1,LOWER(LEFT(C13,1))),"(",""),")",""),"á","a"),"é","e"),"í","i"),"ó","o"),"ú","u"),"ã","a"),"ê","e"),"â","a"),"é","e"),"è","e"),"î","i"),"ï","i"),"ç","c"),"ä","a"),"ö","o"),"ü","u"),"ß","ss"),"ş","s"),"ı","i"),"ğ","g"),"ę","e"),"ł","l"),"ń","n"),"ś","s"),"ż","z"),"ã","a"),"ầ","a"),"à","a"),"ậ","a"),"đ","d"),"ế","e"),"ì","i"),"í","i"),"ổ","o"),"ô","o"),"ư","u"),"ả","a"),"ế","e"),"ĩ","i"),"ợ","o"),"ồ","o"),"ạ","a"),"ứ","u"),"ý","y"),"ạ","a"),"é","e"),"ỳ","y"),"ế","e"),"ể","e"),"ệ","e"),"ù","u"),"ë","e"),".",""),"Ġ","g"),"ø","o"),"ñ","n"),"'",""),"ō","o")</f>
         <v>nitrogen Processing Aid</v>
       </c>
-      <c r="C13" s="0" t="s">
-        <v>105</v>
-      </c>
-      <c r="D13" s="0" t="s">
+      <c r="C13" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="D13" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="E13" s="11" t="s">
-        <v>106</v>
-      </c>
-      <c r="F13" s="0" t="s">
-        <v>107</v>
-      </c>
-      <c r="G13" s="0" t="s">
+      <c r="E13" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="G13" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="H13" s="8" t="s">
-        <v>108</v>
-      </c>
-      <c r="I13" s="11" t="s">
-        <v>109</v>
-      </c>
-      <c r="J13" s="8" t="s">
-        <v>110</v>
-      </c>
-      <c r="K13" s="8" t="s">
-        <v>111</v>
-      </c>
-      <c r="L13" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="M13" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="N13" s="12"/>
-      <c r="O13" s="9" t="s">
+      <c r="H13" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="I13" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="J13" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="K13" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="L13" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="M13" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="N13" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="O13" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="P13" s="9" t="b">
+      <c r="P13" s="8" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="Q13" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="R13" s="9" t="s">
+      <c r="Q13" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="R13" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="S13" s="9" t="b">
+      <c r="S13" s="8" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="T13" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="U13" s="9" t="s">
+      <c r="T13" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="U13" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="V13" s="9" t="s">
+      <c r="V13" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="W13" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="X13" s="9" t="s">
+      <c r="W13" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="X13" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="Y13" s="9" t="s">
+      <c r="Y13" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="Z13" s="9" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Z13" s="8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="str">
         <f aca="false">CLEAN(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B14,"--","-"),"ħ","h"),"å","a"),"æ","ae"),"Ġ","g"),"Č","c"),"ě","e"),"ň","n"),"š","s"),"ě","e"),"ň","n"),"ž","z"),"ř","r"),"č","c"),"ġ","g"),"Ñ","N"),"À","A"),"Á","A"),"Â","A"),"Ã","A"),"Ä","A"),"Ç","C"),"È","E"),"É","E"),"Ê","E"),"Ë","E"),"Ì","I"),"Í","I"),"Î","I"),"Ï","I"),"Ò","O"),"Ó","O"),"Ô","O"),"Õ","O"),"Ö","O"),"Š","S"),"Ú","U"),"Û","U"),"Ü","U"),"Ù","U"),"Ý","Y"),"Ÿ","Y"),"Ž","Z"),"/",""),"\","")," ",""),",",""),"%",""),"®",""),"&amp;",""),"*",""),"+",""),":",""),"#",""),"-",""),"&lt;",""),"&gt;",""))</f>
         <v>activatedCarbon</v>
@@ -1869,79 +1884,82 @@
         <f aca="false">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(REPLACE(PROPER(C14),1,1,LOWER(LEFT(C14,1))),"(",""),")",""),"á","a"),"é","e"),"í","i"),"ó","o"),"ú","u"),"ã","a"),"ê","e"),"â","a"),"é","e"),"è","e"),"î","i"),"ï","i"),"ç","c"),"ä","a"),"ö","o"),"ü","u"),"ß","ss"),"ş","s"),"ı","i"),"ğ","g"),"ę","e"),"ł","l"),"ń","n"),"ś","s"),"ż","z"),"ã","a"),"ầ","a"),"à","a"),"ậ","a"),"đ","d"),"ế","e"),"ì","i"),"í","i"),"ổ","o"),"ô","o"),"ư","u"),"ả","a"),"ế","e"),"ĩ","i"),"ợ","o"),"ồ","o"),"ạ","a"),"ứ","u"),"ý","y"),"ạ","a"),"é","e"),"ỳ","y"),"ế","e"),"ể","e"),"ệ","e"),"ù","u"),"ë","e"),".",""),"Ġ","g"),"ø","o"),"ñ","n"),"'",""),"ō","o")</f>
         <v>activated Carbon</v>
       </c>
-      <c r="C14" s="0" t="s">
-        <v>112</v>
-      </c>
-      <c r="D14" s="0" t="s">
+      <c r="C14" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="D14" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="E14" s="0" t="s">
-        <v>113</v>
-      </c>
-      <c r="F14" s="0" t="s">
-        <v>114</v>
-      </c>
-      <c r="G14" s="0" t="s">
+      <c r="E14" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="G14" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="H14" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="I14" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="J14" s="8" t="s">
-        <v>117</v>
-      </c>
-      <c r="K14" s="8" t="s">
-        <v>118</v>
-      </c>
-      <c r="L14" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="M14" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="O14" s="9" t="s">
+      <c r="H14" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="I14" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="K14" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="L14" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="M14" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="N14" s="0" t="s">
+        <v>125</v>
+      </c>
+      <c r="O14" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="P14" s="9" t="b">
+      <c r="P14" s="8" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="Q14" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="R14" s="9" t="s">
+      <c r="Q14" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="R14" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="S14" s="9" t="b">
+      <c r="S14" s="8" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="T14" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="U14" s="9" t="s">
+      <c r="T14" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="U14" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="V14" s="9" t="s">
+      <c r="V14" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="W14" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="X14" s="9" t="s">
+      <c r="W14" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="X14" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="Y14" s="9" t="s">
+      <c r="Y14" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="Z14" s="9" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Z14" s="8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="str">
         <f aca="false">CLEAN(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B15,"--","-"),"ħ","h"),"å","a"),"æ","ae"),"Ġ","g"),"Č","c"),"ě","e"),"ň","n"),"š","s"),"ě","e"),"ň","n"),"ž","z"),"ř","r"),"č","c"),"ġ","g"),"Ñ","N"),"À","A"),"Á","A"),"Â","A"),"Ã","A"),"Ä","A"),"Ç","C"),"È","E"),"É","E"),"Ê","E"),"Ë","E"),"Ì","I"),"Í","I"),"Î","I"),"Ï","I"),"Ò","O"),"Ó","O"),"Ô","O"),"Õ","O"),"Ö","O"),"Š","S"),"Ú","U"),"Û","U"),"Ü","U"),"Ù","U"),"Ý","Y"),"Ÿ","Y"),"Ž","Z"),"/",""),"\","")," ",""),",",""),"%",""),"®",""),"&amp;",""),"*",""),"+",""),":",""),"#",""),"-",""),"&lt;",""),"&gt;",""))</f>
         <v>bleachingEarth</v>
@@ -1950,79 +1968,79 @@
         <f aca="false">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(REPLACE(PROPER(C15),1,1,LOWER(LEFT(C15,1))),"(",""),")",""),"á","a"),"é","e"),"í","i"),"ó","o"),"ú","u"),"ã","a"),"ê","e"),"â","a"),"é","e"),"è","e"),"î","i"),"ï","i"),"ç","c"),"ä","a"),"ö","o"),"ü","u"),"ß","ss"),"ş","s"),"ı","i"),"ğ","g"),"ę","e"),"ł","l"),"ń","n"),"ś","s"),"ż","z"),"ã","a"),"ầ","a"),"à","a"),"ậ","a"),"đ","d"),"ế","e"),"ì","i"),"í","i"),"ổ","o"),"ô","o"),"ư","u"),"ả","a"),"ế","e"),"ĩ","i"),"ợ","o"),"ồ","o"),"ạ","a"),"ứ","u"),"ý","y"),"ạ","a"),"é","e"),"ỳ","y"),"ế","e"),"ể","e"),"ệ","e"),"ù","u"),"ë","e"),".",""),"Ġ","g"),"ø","o"),"ñ","n"),"'",""),"ō","o")</f>
         <v>bleaching Earth</v>
       </c>
-      <c r="C15" s="0" t="s">
-        <v>119</v>
-      </c>
-      <c r="D15" s="0" t="s">
+      <c r="C15" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="D15" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="E15" s="0" t="s">
-        <v>120</v>
-      </c>
-      <c r="F15" s="0" t="s">
-        <v>121</v>
-      </c>
-      <c r="G15" s="0" t="s">
+      <c r="E15" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="G15" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="H15" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="I15" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="J15" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="K15" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="L15" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="M15" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="O15" s="9" t="s">
+      <c r="H15" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="I15" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="K15" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="L15" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="M15" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="O15" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="P15" s="9" t="b">
+      <c r="P15" s="8" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="Q15" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="R15" s="9" t="s">
+      <c r="Q15" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="R15" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="S15" s="9" t="b">
+      <c r="S15" s="8" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="T15" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="U15" s="9" t="s">
+      <c r="T15" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="U15" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="V15" s="9" t="s">
+      <c r="V15" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="W15" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="X15" s="9" t="s">
+      <c r="W15" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="X15" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="Y15" s="9" t="s">
+      <c r="Y15" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="Z15" s="9" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Z15" s="8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="str">
         <f aca="false">CLEAN(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B16,"--","-"),"ħ","h"),"å","a"),"æ","ae"),"Ġ","g"),"Č","c"),"ě","e"),"ň","n"),"š","s"),"ě","e"),"ň","n"),"ž","z"),"ř","r"),"č","c"),"ġ","g"),"Ñ","N"),"À","A"),"Á","A"),"Â","A"),"Ã","A"),"Ä","A"),"Ç","C"),"È","E"),"É","E"),"Ê","E"),"Ë","E"),"Ì","I"),"Í","I"),"Î","I"),"Ï","I"),"Ò","O"),"Ó","O"),"Ô","O"),"Õ","O"),"Ö","O"),"Š","S"),"Ú","U"),"Û","U"),"Ü","U"),"Ù","U"),"Ý","Y"),"Ÿ","Y"),"Ž","Z"),"/",""),"\","")," ",""),",",""),"%",""),"®",""),"&amp;",""),"*",""),"+",""),":",""),"#",""),"-",""),"&lt;",""),"&gt;",""))</f>
         <v>hexane</v>
@@ -2031,79 +2049,82 @@
         <f aca="false">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(REPLACE(PROPER(C16),1,1,LOWER(LEFT(C16,1))),"(",""),")",""),"á","a"),"é","e"),"í","i"),"ó","o"),"ú","u"),"ã","a"),"ê","e"),"â","a"),"é","e"),"è","e"),"î","i"),"ï","i"),"ç","c"),"ä","a"),"ö","o"),"ü","u"),"ß","ss"),"ş","s"),"ı","i"),"ğ","g"),"ę","e"),"ł","l"),"ń","n"),"ś","s"),"ż","z"),"ã","a"),"ầ","a"),"à","a"),"ậ","a"),"đ","d"),"ế","e"),"ì","i"),"í","i"),"ổ","o"),"ô","o"),"ư","u"),"ả","a"),"ế","e"),"ĩ","i"),"ợ","o"),"ồ","o"),"ạ","a"),"ứ","u"),"ý","y"),"ạ","a"),"é","e"),"ỳ","y"),"ế","e"),"ể","e"),"ệ","e"),"ù","u"),"ë","e"),".",""),"Ġ","g"),"ø","o"),"ñ","n"),"'",""),"ō","o")</f>
         <v>hexane</v>
       </c>
-      <c r="C16" s="0" t="s">
-        <v>122</v>
-      </c>
-      <c r="D16" s="0" t="s">
+      <c r="C16" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="D16" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="E16" s="0" t="s">
-        <v>123</v>
-      </c>
-      <c r="F16" s="0" t="s">
-        <v>124</v>
-      </c>
-      <c r="G16" s="0" t="s">
+      <c r="E16" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="G16" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="H16" s="13" t="s">
-        <v>125</v>
-      </c>
-      <c r="I16" s="11" t="s">
-        <v>126</v>
-      </c>
-      <c r="J16" s="8" t="s">
-        <v>127</v>
-      </c>
-      <c r="K16" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="L16" s="0" t="s">
-        <v>128</v>
-      </c>
-      <c r="M16" s="0" t="n">
+      <c r="H16" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="I16" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="J16" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="K16" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="L16" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="M16" s="3" t="n">
         <v>660</v>
       </c>
-      <c r="O16" s="9" t="s">
+      <c r="N16" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="O16" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="P16" s="9" t="b">
+      <c r="P16" s="8" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="Q16" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="R16" s="9" t="s">
+      <c r="Q16" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="R16" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="S16" s="9" t="b">
+      <c r="S16" s="8" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="T16" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="U16" s="9" t="s">
+      <c r="T16" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="U16" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="V16" s="9" t="s">
+      <c r="V16" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="W16" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="X16" s="9" t="s">
+      <c r="W16" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="X16" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="Y16" s="9" t="s">
+      <c r="Y16" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="Z16" s="9" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Z16" s="8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="str">
         <f aca="false">CLEAN(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B17,"--","-"),"ħ","h"),"å","a"),"æ","ae"),"Ġ","g"),"Č","c"),"ě","e"),"ň","n"),"š","s"),"ě","e"),"ň","n"),"ž","z"),"ř","r"),"č","c"),"ġ","g"),"Ñ","N"),"À","A"),"Á","A"),"Â","A"),"Ã","A"),"Ä","A"),"Ç","C"),"È","E"),"É","E"),"Ê","E"),"Ë","E"),"Ì","I"),"Í","I"),"Î","I"),"Ï","I"),"Ò","O"),"Ó","O"),"Ô","O"),"Õ","O"),"Ö","O"),"Š","S"),"Ú","U"),"Û","U"),"Ü","U"),"Ù","U"),"Ý","Y"),"Ÿ","Y"),"Ž","Z"),"/",""),"\","")," ",""),",",""),"%",""),"®",""),"&amp;",""),"*",""),"+",""),":",""),"#",""),"-",""),"&lt;",""),"&gt;",""))</f>
         <v>phosphoricAcidProcessingAid</v>
@@ -2112,79 +2133,82 @@
         <f aca="false">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(REPLACE(PROPER(C17),1,1,LOWER(LEFT(C17,1))),"(",""),")",""),"á","a"),"é","e"),"í","i"),"ó","o"),"ú","u"),"ã","a"),"ê","e"),"â","a"),"é","e"),"è","e"),"î","i"),"ï","i"),"ç","c"),"ä","a"),"ö","o"),"ü","u"),"ß","ss"),"ş","s"),"ı","i"),"ğ","g"),"ę","e"),"ł","l"),"ń","n"),"ś","s"),"ż","z"),"ã","a"),"ầ","a"),"à","a"),"ậ","a"),"đ","d"),"ế","e"),"ì","i"),"í","i"),"ổ","o"),"ô","o"),"ư","u"),"ả","a"),"ế","e"),"ĩ","i"),"ợ","o"),"ồ","o"),"ạ","a"),"ứ","u"),"ý","y"),"ạ","a"),"é","e"),"ỳ","y"),"ế","e"),"ể","e"),"ệ","e"),"ù","u"),"ë","e"),".",""),"Ġ","g"),"ø","o"),"ñ","n"),"'",""),"ō","o")</f>
         <v>phosphoric Acid Processing Aid</v>
       </c>
-      <c r="C17" s="0" t="s">
-        <v>129</v>
-      </c>
-      <c r="D17" s="0" t="s">
+      <c r="C17" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="D17" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="E17" s="11" t="s">
-        <v>130</v>
-      </c>
-      <c r="F17" s="0" t="s">
-        <v>131</v>
-      </c>
-      <c r="G17" s="0" t="s">
+      <c r="E17" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="G17" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="H17" s="8" t="s">
-        <v>132</v>
-      </c>
-      <c r="I17" s="11" t="s">
-        <v>133</v>
-      </c>
-      <c r="J17" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="K17" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="L17" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="M17" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="O17" s="9" t="s">
+      <c r="H17" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="I17" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="J17" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="K17" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="L17" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="M17" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="N17" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="O17" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="P17" s="9" t="b">
+      <c r="P17" s="8" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="Q17" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="R17" s="9" t="s">
+      <c r="Q17" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="R17" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="S17" s="9" t="b">
+      <c r="S17" s="8" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="T17" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="U17" s="9" t="s">
+      <c r="T17" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="U17" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="V17" s="9" t="s">
+      <c r="V17" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="W17" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="X17" s="9" t="s">
+      <c r="W17" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="X17" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="Y17" s="9" t="s">
+      <c r="Y17" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="Z17" s="9" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Z17" s="8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="str">
         <f aca="false">CLEAN(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B18,"--","-"),"ħ","h"),"å","a"),"æ","ae"),"Ġ","g"),"Č","c"),"ě","e"),"ň","n"),"š","s"),"ě","e"),"ň","n"),"ž","z"),"ř","r"),"č","c"),"ġ","g"),"Ñ","N"),"À","A"),"Á","A"),"Â","A"),"Ã","A"),"Ä","A"),"Ç","C"),"È","E"),"É","E"),"Ê","E"),"Ë","E"),"Ì","I"),"Í","I"),"Î","I"),"Ï","I"),"Ò","O"),"Ó","O"),"Ô","O"),"Õ","O"),"Ö","O"),"Š","S"),"Ú","U"),"Û","U"),"Ü","U"),"Ù","U"),"Ý","Y"),"Ÿ","Y"),"Ž","Z"),"/",""),"\","")," ",""),",",""),"%",""),"®",""),"&amp;",""),"*",""),"+",""),":",""),"#",""),"-",""),"&lt;",""),"&gt;",""))</f>
         <v>sodiumHydroxideProcessingAid</v>
@@ -2193,79 +2217,82 @@
         <f aca="false">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(REPLACE(PROPER(C18),1,1,LOWER(LEFT(C18,1))),"(",""),")",""),"á","a"),"é","e"),"í","i"),"ó","o"),"ú","u"),"ã","a"),"ê","e"),"â","a"),"é","e"),"è","e"),"î","i"),"ï","i"),"ç","c"),"ä","a"),"ö","o"),"ü","u"),"ß","ss"),"ş","s"),"ı","i"),"ğ","g"),"ę","e"),"ł","l"),"ń","n"),"ś","s"),"ż","z"),"ã","a"),"ầ","a"),"à","a"),"ậ","a"),"đ","d"),"ế","e"),"ì","i"),"í","i"),"ổ","o"),"ô","o"),"ư","u"),"ả","a"),"ế","e"),"ĩ","i"),"ợ","o"),"ồ","o"),"ạ","a"),"ứ","u"),"ý","y"),"ạ","a"),"é","e"),"ỳ","y"),"ế","e"),"ể","e"),"ệ","e"),"ù","u"),"ë","e"),".",""),"Ġ","g"),"ø","o"),"ñ","n"),"'",""),"ō","o")</f>
         <v>sodium Hydroxide Processing Aid</v>
       </c>
-      <c r="C18" s="0" t="s">
-        <v>135</v>
-      </c>
-      <c r="D18" s="0" t="s">
+      <c r="C18" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="D18" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="E18" s="11" t="s">
-        <v>136</v>
-      </c>
-      <c r="F18" s="0" t="s">
-        <v>137</v>
-      </c>
-      <c r="G18" s="0" t="s">
+      <c r="E18" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="G18" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="H18" s="8" t="s">
-        <v>138</v>
-      </c>
-      <c r="I18" s="11" t="s">
-        <v>139</v>
-      </c>
-      <c r="J18" s="8" t="s">
-        <v>140</v>
-      </c>
-      <c r="K18" s="8" t="s">
-        <v>141</v>
-      </c>
-      <c r="L18" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="M18" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="O18" s="9" t="s">
+      <c r="H18" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="I18" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="K18" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="L18" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="M18" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="N18" s="0" t="s">
+        <v>151</v>
+      </c>
+      <c r="O18" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="P18" s="9" t="b">
+      <c r="P18" s="8" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="Q18" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="R18" s="9" t="s">
+      <c r="Q18" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="R18" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="S18" s="9" t="b">
+      <c r="S18" s="8" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="T18" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="U18" s="9" t="s">
+      <c r="T18" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="U18" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="V18" s="9" t="s">
+      <c r="V18" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="W18" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="X18" s="9" t="s">
+      <c r="W18" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="X18" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="Y18" s="9" t="s">
+      <c r="Y18" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="Z18" s="9" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Z18" s="8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="str">
         <f aca="false">CLEAN(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B19,"--","-"),"ħ","h"),"å","a"),"æ","ae"),"Ġ","g"),"Č","c"),"ě","e"),"ň","n"),"š","s"),"ě","e"),"ň","n"),"ž","z"),"ř","r"),"č","c"),"ġ","g"),"Ñ","N"),"À","A"),"Á","A"),"Â","A"),"Ã","A"),"Ä","A"),"Ç","C"),"È","E"),"É","E"),"Ê","E"),"Ë","E"),"Ì","I"),"Í","I"),"Î","I"),"Ï","I"),"Ò","O"),"Ó","O"),"Ô","O"),"Õ","O"),"Ö","O"),"Š","S"),"Ú","U"),"Û","U"),"Ü","U"),"Ù","U"),"Ý","Y"),"Ÿ","Y"),"Ž","Z"),"/",""),"\","")," ",""),",",""),"%",""),"®",""),"&amp;",""),"*",""),"+",""),":",""),"#",""),"-",""),"&lt;",""),"&gt;",""))</f>
         <v>sulphuricAcidProcessingAid</v>
@@ -2274,79 +2301,82 @@
         <f aca="false">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(REPLACE(PROPER(C19),1,1,LOWER(LEFT(C19,1))),"(",""),")",""),"á","a"),"é","e"),"í","i"),"ó","o"),"ú","u"),"ã","a"),"ê","e"),"â","a"),"é","e"),"è","e"),"î","i"),"ï","i"),"ç","c"),"ä","a"),"ö","o"),"ü","u"),"ß","ss"),"ş","s"),"ı","i"),"ğ","g"),"ę","e"),"ł","l"),"ń","n"),"ś","s"),"ż","z"),"ã","a"),"ầ","a"),"à","a"),"ậ","a"),"đ","d"),"ế","e"),"ì","i"),"í","i"),"ổ","o"),"ô","o"),"ư","u"),"ả","a"),"ế","e"),"ĩ","i"),"ợ","o"),"ồ","o"),"ạ","a"),"ứ","u"),"ý","y"),"ạ","a"),"é","e"),"ỳ","y"),"ế","e"),"ể","e"),"ệ","e"),"ù","u"),"ë","e"),".",""),"Ġ","g"),"ø","o"),"ñ","n"),"'",""),"ō","o")</f>
         <v>sulphuric Acid Processing Aid</v>
       </c>
-      <c r="C19" s="0" t="s">
-        <v>142</v>
-      </c>
-      <c r="D19" s="0" t="s">
+      <c r="C19" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="D19" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="E19" s="11" t="s">
-        <v>143</v>
-      </c>
-      <c r="F19" s="0" t="s">
-        <v>144</v>
-      </c>
-      <c r="G19" s="0" t="s">
+      <c r="E19" s="10" t="s">
+        <v>153</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="G19" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="H19" s="8" t="s">
-        <v>145</v>
-      </c>
-      <c r="I19" s="0" t="s">
-        <v>146</v>
-      </c>
-      <c r="J19" s="8" t="s">
-        <v>147</v>
-      </c>
-      <c r="K19" s="8" t="s">
-        <v>148</v>
-      </c>
-      <c r="L19" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="M19" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="O19" s="9" t="s">
+      <c r="H19" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="I19" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="J19" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="K19" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="L19" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="M19" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="N19" s="0" t="s">
+        <v>159</v>
+      </c>
+      <c r="O19" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="P19" s="9" t="b">
+      <c r="P19" s="8" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="Q19" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="R19" s="9" t="s">
+      <c r="Q19" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="R19" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="S19" s="9" t="b">
+      <c r="S19" s="8" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="T19" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="U19" s="9" t="s">
+      <c r="T19" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="U19" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="V19" s="9" t="s">
+      <c r="V19" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="W19" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="X19" s="9" t="s">
+      <c r="W19" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="X19" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="Y19" s="9" t="s">
+      <c r="Y19" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="Z19" s="9" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Z19" s="8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="str">
         <f aca="false">CLEAN(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B20,"--","-"),"ħ","h"),"å","a"),"æ","ae"),"Ġ","g"),"Č","c"),"ě","e"),"ň","n"),"š","s"),"ě","e"),"ň","n"),"ž","z"),"ř","r"),"č","c"),"ġ","g"),"Ñ","N"),"À","A"),"Á","A"),"Â","A"),"Ã","A"),"Ä","A"),"Ç","C"),"È","E"),"É","E"),"Ê","E"),"Ë","E"),"Ì","I"),"Í","I"),"Î","I"),"Ï","I"),"Ò","O"),"Ó","O"),"Ô","O"),"Õ","O"),"Ö","O"),"Š","S"),"Ú","U"),"Û","U"),"Ü","U"),"Ù","U"),"Ý","Y"),"Ÿ","Y"),"Ž","Z"),"/",""),"\","")," ",""),",",""),"%",""),"®",""),"&amp;",""),"*",""),"+",""),":",""),"#",""),"-",""),"&lt;",""),"&gt;",""))</f>
         <v>calciumCarbideProcessingAid</v>
@@ -2355,79 +2385,82 @@
         <f aca="false">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(REPLACE(PROPER(C20),1,1,LOWER(LEFT(C20,1))),"(",""),")",""),"á","a"),"é","e"),"í","i"),"ó","o"),"ú","u"),"ã","a"),"ê","e"),"â","a"),"é","e"),"è","e"),"î","i"),"ï","i"),"ç","c"),"ä","a"),"ö","o"),"ü","u"),"ß","ss"),"ş","s"),"ı","i"),"ğ","g"),"ę","e"),"ł","l"),"ń","n"),"ś","s"),"ż","z"),"ã","a"),"ầ","a"),"à","a"),"ậ","a"),"đ","d"),"ế","e"),"ì","i"),"í","i"),"ổ","o"),"ô","o"),"ư","u"),"ả","a"),"ế","e"),"ĩ","i"),"ợ","o"),"ồ","o"),"ạ","a"),"ứ","u"),"ý","y"),"ạ","a"),"é","e"),"ỳ","y"),"ế","e"),"ể","e"),"ệ","e"),"ù","u"),"ë","e"),".",""),"Ġ","g"),"ø","o"),"ñ","n"),"'",""),"ō","o")</f>
         <v>calcium Carbide Processing Aid</v>
       </c>
-      <c r="C20" s="0" t="s">
-        <v>149</v>
-      </c>
-      <c r="D20" s="0" t="s">
+      <c r="C20" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="D20" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="E20" s="11" t="s">
-        <v>150</v>
-      </c>
-      <c r="F20" s="0" t="s">
-        <v>151</v>
-      </c>
-      <c r="G20" s="0" t="s">
+      <c r="E20" s="10" t="s">
+        <v>161</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="G20" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="H20" s="8" t="s">
-        <v>152</v>
-      </c>
-      <c r="I20" s="11" t="s">
-        <v>153</v>
-      </c>
-      <c r="J20" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="K20" s="8" t="s">
-        <v>154</v>
-      </c>
-      <c r="L20" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="M20" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="O20" s="9" t="s">
+      <c r="H20" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="I20" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="J20" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="K20" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="L20" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="M20" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="N20" s="0" t="s">
+        <v>166</v>
+      </c>
+      <c r="O20" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="P20" s="9" t="b">
+      <c r="P20" s="8" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="Q20" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="R20" s="9" t="s">
+      <c r="Q20" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="R20" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="S20" s="9" t="b">
+      <c r="S20" s="8" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="T20" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="U20" s="9" t="s">
+      <c r="T20" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="U20" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="V20" s="9" t="s">
+      <c r="V20" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="W20" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="X20" s="9" t="s">
+      <c r="W20" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="X20" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="Y20" s="9" t="s">
+      <c r="Y20" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="Z20" s="9" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Z20" s="8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="str">
         <f aca="false">CLEAN(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B21,"--","-"),"ħ","h"),"å","a"),"æ","ae"),"Ġ","g"),"Č","c"),"ě","e"),"ň","n"),"š","s"),"ě","e"),"ň","n"),"ž","z"),"ř","r"),"č","c"),"ġ","g"),"Ñ","N"),"À","A"),"Á","A"),"Â","A"),"Ã","A"),"Ä","A"),"Ç","C"),"È","E"),"É","E"),"Ê","E"),"Ë","E"),"Ì","I"),"Í","I"),"Î","I"),"Ï","I"),"Ò","O"),"Ó","O"),"Ô","O"),"Õ","O"),"Ö","O"),"Š","S"),"Ú","U"),"Û","U"),"Ü","U"),"Ù","U"),"Ý","Y"),"Ÿ","Y"),"Ž","Z"),"/",""),"\","")," ",""),",",""),"%",""),"®",""),"&amp;",""),"*",""),"+",""),":",""),"#",""),"-",""),"&lt;",""),"&gt;",""))</f>
         <v>nitricAcidProcessingAid</v>
@@ -2436,79 +2469,82 @@
         <f aca="false">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(REPLACE(PROPER(C21),1,1,LOWER(LEFT(C21,1))),"(",""),")",""),"á","a"),"é","e"),"í","i"),"ó","o"),"ú","u"),"ã","a"),"ê","e"),"â","a"),"é","e"),"è","e"),"î","i"),"ï","i"),"ç","c"),"ä","a"),"ö","o"),"ü","u"),"ß","ss"),"ş","s"),"ı","i"),"ğ","g"),"ę","e"),"ł","l"),"ń","n"),"ś","s"),"ż","z"),"ã","a"),"ầ","a"),"à","a"),"ậ","a"),"đ","d"),"ế","e"),"ì","i"),"í","i"),"ổ","o"),"ô","o"),"ư","u"),"ả","a"),"ế","e"),"ĩ","i"),"ợ","o"),"ồ","o"),"ạ","a"),"ứ","u"),"ý","y"),"ạ","a"),"é","e"),"ỳ","y"),"ế","e"),"ể","e"),"ệ","e"),"ù","u"),"ë","e"),".",""),"Ġ","g"),"ø","o"),"ñ","n"),"'",""),"ō","o")</f>
         <v>nitric Acid Processing Aid</v>
       </c>
-      <c r="C21" s="0" t="s">
-        <v>155</v>
-      </c>
-      <c r="D21" s="0" t="s">
+      <c r="C21" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="D21" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="E21" s="11" t="s">
-        <v>156</v>
-      </c>
-      <c r="F21" s="0" t="s">
-        <v>157</v>
-      </c>
-      <c r="G21" s="0" t="s">
+      <c r="E21" s="10" t="s">
+        <v>168</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="G21" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="H21" s="8" t="s">
-        <v>158</v>
-      </c>
-      <c r="I21" s="11" t="s">
-        <v>159</v>
-      </c>
-      <c r="J21" s="8" t="s">
-        <v>160</v>
-      </c>
-      <c r="K21" s="8" t="s">
-        <v>161</v>
-      </c>
-      <c r="L21" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="M21" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="O21" s="9" t="s">
+      <c r="H21" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="I21" s="10" t="s">
+        <v>171</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="K21" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="L21" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="M21" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="N21" s="0" t="s">
+        <v>174</v>
+      </c>
+      <c r="O21" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="P21" s="9" t="b">
+      <c r="P21" s="8" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="Q21" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="R21" s="9" t="s">
+      <c r="Q21" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="R21" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="S21" s="9" t="b">
+      <c r="S21" s="8" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="T21" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="U21" s="9" t="s">
+      <c r="T21" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="U21" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="V21" s="9" t="s">
+      <c r="V21" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="W21" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="X21" s="9" t="s">
+      <c r="W21" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="X21" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="Y21" s="9" t="s">
+      <c r="Y21" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="Z21" s="9" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Z21" s="8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="str">
         <f aca="false">CLEAN(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B22,"--","-"),"ħ","h"),"å","a"),"æ","ae"),"Ġ","g"),"Č","c"),"ě","e"),"ň","n"),"š","s"),"ě","e"),"ň","n"),"ž","z"),"ř","r"),"č","c"),"ġ","g"),"Ñ","N"),"À","A"),"Á","A"),"Â","A"),"Ã","A"),"Ä","A"),"Ç","C"),"È","E"),"É","E"),"Ê","E"),"Ë","E"),"Ì","I"),"Í","I"),"Î","I"),"Ï","I"),"Ò","O"),"Ó","O"),"Ô","O"),"Õ","O"),"Ö","O"),"Š","S"),"Ú","U"),"Û","U"),"Ü","U"),"Ù","U"),"Ý","Y"),"Ÿ","Y"),"Ž","Z"),"/",""),"\","")," ",""),",",""),"%",""),"®",""),"&amp;",""),"*",""),"+",""),":",""),"#",""),"-",""),"&lt;",""),"&gt;",""))</f>
         <v/>
@@ -2517,23 +2553,23 @@
         <f aca="false">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(REPLACE(PROPER(C22),1,1,LOWER(LEFT(C22,1))),"(",""),")",""),"á","a"),"é","e"),"í","i"),"ó","o"),"ú","u"),"ã","a"),"ê","e"),"â","a"),"é","e"),"è","e"),"î","i"),"ï","i"),"ç","c"),"ä","a"),"ö","o"),"ü","u"),"ß","ss"),"ş","s"),"ı","i"),"ğ","g"),"ę","e"),"ł","l"),"ń","n"),"ś","s"),"ż","z"),"ã","a"),"ầ","a"),"à","a"),"ậ","a"),"đ","d"),"ế","e"),"ì","i"),"í","i"),"ổ","o"),"ô","o"),"ư","u"),"ả","a"),"ế","e"),"ĩ","i"),"ợ","o"),"ồ","o"),"ạ","a"),"ứ","u"),"ý","y"),"ạ","a"),"é","e"),"ỳ","y"),"ế","e"),"ể","e"),"ệ","e"),"ù","u"),"ë","e"),".",""),"Ġ","g"),"ø","o"),"ñ","n"),"'",""),"ō","o")</f>
         <v/>
       </c>
-      <c r="E22" s="11"/>
-      <c r="I22" s="11"/>
-      <c r="J22" s="8"/>
-      <c r="O22" s="9"/>
-      <c r="P22" s="9"/>
-      <c r="Q22" s="9"/>
-      <c r="R22" s="9"/>
-      <c r="S22" s="9"/>
-      <c r="T22" s="9"/>
-      <c r="U22" s="9"/>
-      <c r="V22" s="9"/>
-      <c r="W22" s="9"/>
-      <c r="X22" s="9"/>
-      <c r="Y22" s="9"/>
-      <c r="Z22" s="9"/>
-    </row>
-    <row r="23" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E22" s="10"/>
+      <c r="I22" s="10"/>
+      <c r="J22" s="3"/>
+      <c r="O22" s="8"/>
+      <c r="P22" s="8"/>
+      <c r="Q22" s="8"/>
+      <c r="R22" s="8"/>
+      <c r="S22" s="8"/>
+      <c r="T22" s="8"/>
+      <c r="U22" s="8"/>
+      <c r="V22" s="8"/>
+      <c r="W22" s="8"/>
+      <c r="X22" s="8"/>
+      <c r="Y22" s="8"/>
+      <c r="Z22" s="8"/>
+    </row>
+    <row r="23" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="str">
         <f aca="false">CLEAN(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B23,"--","-"),"ħ","h"),"å","a"),"æ","ae"),"Ġ","g"),"Č","c"),"ě","e"),"ň","n"),"š","s"),"ě","e"),"ň","n"),"ž","z"),"ř","r"),"č","c"),"ġ","g"),"Ñ","N"),"À","A"),"Á","A"),"Â","A"),"Ã","A"),"Ä","A"),"Ç","C"),"È","E"),"É","E"),"Ê","E"),"Ë","E"),"Ì","I"),"Í","I"),"Î","I"),"Ï","I"),"Ò","O"),"Ó","O"),"Ô","O"),"Õ","O"),"Ö","O"),"Š","S"),"Ú","U"),"Û","U"),"Ü","U"),"Ù","U"),"Ý","Y"),"Ÿ","Y"),"Ž","Z"),"/",""),"\","")," ",""),",",""),"%",""),"®",""),"&amp;",""),"*",""),"+",""),":",""),"#",""),"-",""),"&lt;",""),"&gt;",""))</f>
         <v/>
@@ -2542,23 +2578,23 @@
         <f aca="false">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(REPLACE(PROPER(C23),1,1,LOWER(LEFT(C23,1))),"(",""),")",""),"á","a"),"é","e"),"í","i"),"ó","o"),"ú","u"),"ã","a"),"ê","e"),"â","a"),"é","e"),"è","e"),"î","i"),"ï","i"),"ç","c"),"ä","a"),"ö","o"),"ü","u"),"ß","ss"),"ş","s"),"ı","i"),"ğ","g"),"ę","e"),"ł","l"),"ń","n"),"ś","s"),"ż","z"),"ã","a"),"ầ","a"),"à","a"),"ậ","a"),"đ","d"),"ế","e"),"ì","i"),"í","i"),"ổ","o"),"ô","o"),"ư","u"),"ả","a"),"ế","e"),"ĩ","i"),"ợ","o"),"ồ","o"),"ạ","a"),"ứ","u"),"ý","y"),"ạ","a"),"é","e"),"ỳ","y"),"ế","e"),"ể","e"),"ệ","e"),"ù","u"),"ë","e"),".",""),"Ġ","g"),"ø","o"),"ñ","n"),"'",""),"ō","o")</f>
         <v/>
       </c>
-      <c r="E23" s="11"/>
-      <c r="I23" s="11"/>
-      <c r="J23" s="8"/>
-      <c r="O23" s="9"/>
-      <c r="P23" s="9"/>
-      <c r="Q23" s="9"/>
-      <c r="R23" s="9"/>
-      <c r="S23" s="9"/>
-      <c r="T23" s="9"/>
-      <c r="U23" s="9"/>
-      <c r="V23" s="9"/>
-      <c r="W23" s="9"/>
-      <c r="X23" s="9"/>
-      <c r="Y23" s="9"/>
-      <c r="Z23" s="9"/>
-    </row>
-    <row r="24" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E23" s="10"/>
+      <c r="I23" s="10"/>
+      <c r="J23" s="3"/>
+      <c r="O23" s="8"/>
+      <c r="P23" s="8"/>
+      <c r="Q23" s="8"/>
+      <c r="R23" s="8"/>
+      <c r="S23" s="8"/>
+      <c r="T23" s="8"/>
+      <c r="U23" s="8"/>
+      <c r="V23" s="8"/>
+      <c r="W23" s="8"/>
+      <c r="X23" s="8"/>
+      <c r="Y23" s="8"/>
+      <c r="Z23" s="8"/>
+    </row>
+    <row r="24" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="str">
         <f aca="false">CLEAN(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B24,"--","-"),"ħ","h"),"å","a"),"æ","ae"),"Ġ","g"),"Č","c"),"ě","e"),"ň","n"),"š","s"),"ě","e"),"ň","n"),"ž","z"),"ř","r"),"č","c"),"ġ","g"),"Ñ","N"),"À","A"),"Á","A"),"Â","A"),"Ã","A"),"Ä","A"),"Ç","C"),"È","E"),"É","E"),"Ê","E"),"Ë","E"),"Ì","I"),"Í","I"),"Î","I"),"Ï","I"),"Ò","O"),"Ó","O"),"Ô","O"),"Õ","O"),"Ö","O"),"Š","S"),"Ú","U"),"Û","U"),"Ü","U"),"Ù","U"),"Ý","Y"),"Ÿ","Y"),"Ž","Z"),"/",""),"\","")," ",""),",",""),"%",""),"®",""),"&amp;",""),"*",""),"+",""),":",""),"#",""),"-",""),"&lt;",""),"&gt;",""))</f>
         <v/>
@@ -2567,23 +2603,23 @@
         <f aca="false">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(REPLACE(PROPER(C24),1,1,LOWER(LEFT(C24,1))),"(",""),")",""),"á","a"),"é","e"),"í","i"),"ó","o"),"ú","u"),"ã","a"),"ê","e"),"â","a"),"é","e"),"è","e"),"î","i"),"ï","i"),"ç","c"),"ä","a"),"ö","o"),"ü","u"),"ß","ss"),"ş","s"),"ı","i"),"ğ","g"),"ę","e"),"ł","l"),"ń","n"),"ś","s"),"ż","z"),"ã","a"),"ầ","a"),"à","a"),"ậ","a"),"đ","d"),"ế","e"),"ì","i"),"í","i"),"ổ","o"),"ô","o"),"ư","u"),"ả","a"),"ế","e"),"ĩ","i"),"ợ","o"),"ồ","o"),"ạ","a"),"ứ","u"),"ý","y"),"ạ","a"),"é","e"),"ỳ","y"),"ế","e"),"ể","e"),"ệ","e"),"ù","u"),"ë","e"),".",""),"Ġ","g"),"ø","o"),"ñ","n"),"'",""),"ō","o")</f>
         <v/>
       </c>
-      <c r="E24" s="11"/>
-      <c r="I24" s="11"/>
-      <c r="J24" s="8"/>
-      <c r="O24" s="9"/>
-      <c r="P24" s="9"/>
-      <c r="Q24" s="9"/>
-      <c r="R24" s="9"/>
-      <c r="S24" s="9"/>
-      <c r="T24" s="9"/>
-      <c r="U24" s="9"/>
-      <c r="V24" s="9"/>
-      <c r="W24" s="9"/>
-      <c r="X24" s="9"/>
-      <c r="Y24" s="9"/>
-      <c r="Z24" s="9"/>
-    </row>
-    <row r="25" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E24" s="10"/>
+      <c r="I24" s="10"/>
+      <c r="J24" s="3"/>
+      <c r="O24" s="8"/>
+      <c r="P24" s="8"/>
+      <c r="Q24" s="8"/>
+      <c r="R24" s="8"/>
+      <c r="S24" s="8"/>
+      <c r="T24" s="8"/>
+      <c r="U24" s="8"/>
+      <c r="V24" s="8"/>
+      <c r="W24" s="8"/>
+      <c r="X24" s="8"/>
+      <c r="Y24" s="8"/>
+      <c r="Z24" s="8"/>
+    </row>
+    <row r="25" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="str">
         <f aca="false">CLEAN(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B25,"--","-"),"ħ","h"),"å","a"),"æ","ae"),"Ġ","g"),"Č","c"),"ě","e"),"ň","n"),"š","s"),"ě","e"),"ň","n"),"ž","z"),"ř","r"),"č","c"),"ġ","g"),"Ñ","N"),"À","A"),"Á","A"),"Â","A"),"Ã","A"),"Ä","A"),"Ç","C"),"È","E"),"É","E"),"Ê","E"),"Ë","E"),"Ì","I"),"Í","I"),"Î","I"),"Ï","I"),"Ò","O"),"Ó","O"),"Ô","O"),"Õ","O"),"Ö","O"),"Š","S"),"Ú","U"),"Û","U"),"Ü","U"),"Ù","U"),"Ý","Y"),"Ÿ","Y"),"Ž","Z"),"/",""),"\","")," ",""),",",""),"%",""),"®",""),"&amp;",""),"*",""),"+",""),":",""),"#",""),"-",""),"&lt;",""),"&gt;",""))</f>
         <v/>
@@ -2592,23 +2628,23 @@
         <f aca="false">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(REPLACE(PROPER(C25),1,1,LOWER(LEFT(C25,1))),"(",""),")",""),"á","a"),"é","e"),"í","i"),"ó","o"),"ú","u"),"ã","a"),"ê","e"),"â","a"),"é","e"),"è","e"),"î","i"),"ï","i"),"ç","c"),"ä","a"),"ö","o"),"ü","u"),"ß","ss"),"ş","s"),"ı","i"),"ğ","g"),"ę","e"),"ł","l"),"ń","n"),"ś","s"),"ż","z"),"ã","a"),"ầ","a"),"à","a"),"ậ","a"),"đ","d"),"ế","e"),"ì","i"),"í","i"),"ổ","o"),"ô","o"),"ư","u"),"ả","a"),"ế","e"),"ĩ","i"),"ợ","o"),"ồ","o"),"ạ","a"),"ứ","u"),"ý","y"),"ạ","a"),"é","e"),"ỳ","y"),"ế","e"),"ể","e"),"ệ","e"),"ù","u"),"ë","e"),".",""),"Ġ","g"),"ø","o"),"ñ","n"),"'",""),"ō","o")</f>
         <v/>
       </c>
-      <c r="E25" s="11"/>
-      <c r="I25" s="11"/>
-      <c r="J25" s="8"/>
-      <c r="O25" s="9"/>
-      <c r="P25" s="9"/>
-      <c r="Q25" s="9"/>
-      <c r="R25" s="9"/>
-      <c r="S25" s="9"/>
-      <c r="T25" s="9"/>
-      <c r="U25" s="9"/>
-      <c r="V25" s="9"/>
-      <c r="W25" s="9"/>
-      <c r="X25" s="9"/>
-      <c r="Y25" s="9"/>
-      <c r="Z25" s="9"/>
-    </row>
-    <row r="26" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E25" s="10"/>
+      <c r="I25" s="10"/>
+      <c r="J25" s="3"/>
+      <c r="O25" s="8"/>
+      <c r="P25" s="8"/>
+      <c r="Q25" s="8"/>
+      <c r="R25" s="8"/>
+      <c r="S25" s="8"/>
+      <c r="T25" s="8"/>
+      <c r="U25" s="8"/>
+      <c r="V25" s="8"/>
+      <c r="W25" s="8"/>
+      <c r="X25" s="8"/>
+      <c r="Y25" s="8"/>
+      <c r="Z25" s="8"/>
+    </row>
+    <row r="26" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="str">
         <f aca="false">CLEAN(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B26,"--","-"),"ħ","h"),"å","a"),"æ","ae"),"Ġ","g"),"Č","c"),"ě","e"),"ň","n"),"š","s"),"ě","e"),"ň","n"),"ž","z"),"ř","r"),"č","c"),"ġ","g"),"Ñ","N"),"À","A"),"Á","A"),"Â","A"),"Ã","A"),"Ä","A"),"Ç","C"),"È","E"),"É","E"),"Ê","E"),"Ë","E"),"Ì","I"),"Í","I"),"Î","I"),"Ï","I"),"Ò","O"),"Ó","O"),"Ô","O"),"Õ","O"),"Ö","O"),"Š","S"),"Ú","U"),"Û","U"),"Ü","U"),"Ù","U"),"Ý","Y"),"Ÿ","Y"),"Ž","Z"),"/",""),"\","")," ",""),",",""),"%",""),"®",""),"&amp;",""),"*",""),"+",""),":",""),"#",""),"-",""),"&lt;",""),"&gt;",""))</f>
         <v/>
@@ -2617,23 +2653,23 @@
         <f aca="false">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(REPLACE(PROPER(C26),1,1,LOWER(LEFT(C26,1))),"(",""),")",""),"á","a"),"é","e"),"í","i"),"ó","o"),"ú","u"),"ã","a"),"ê","e"),"â","a"),"é","e"),"è","e"),"î","i"),"ï","i"),"ç","c"),"ä","a"),"ö","o"),"ü","u"),"ß","ss"),"ş","s"),"ı","i"),"ğ","g"),"ę","e"),"ł","l"),"ń","n"),"ś","s"),"ż","z"),"ã","a"),"ầ","a"),"à","a"),"ậ","a"),"đ","d"),"ế","e"),"ì","i"),"í","i"),"ổ","o"),"ô","o"),"ư","u"),"ả","a"),"ế","e"),"ĩ","i"),"ợ","o"),"ồ","o"),"ạ","a"),"ứ","u"),"ý","y"),"ạ","a"),"é","e"),"ỳ","y"),"ế","e"),"ể","e"),"ệ","e"),"ù","u"),"ë","e"),".",""),"Ġ","g"),"ø","o"),"ñ","n"),"'",""),"ō","o")</f>
         <v/>
       </c>
-      <c r="E26" s="11"/>
-      <c r="I26" s="11"/>
-      <c r="J26" s="13"/>
-      <c r="O26" s="9"/>
-      <c r="P26" s="9"/>
-      <c r="Q26" s="9"/>
-      <c r="R26" s="9"/>
-      <c r="S26" s="9"/>
-      <c r="T26" s="9"/>
-      <c r="U26" s="9"/>
-      <c r="V26" s="9"/>
-      <c r="W26" s="9"/>
-      <c r="X26" s="9"/>
-      <c r="Y26" s="9"/>
-      <c r="Z26" s="9"/>
-    </row>
-    <row r="27" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E26" s="10"/>
+      <c r="I26" s="10"/>
+      <c r="J26" s="3"/>
+      <c r="O26" s="8"/>
+      <c r="P26" s="8"/>
+      <c r="Q26" s="8"/>
+      <c r="R26" s="8"/>
+      <c r="S26" s="8"/>
+      <c r="T26" s="8"/>
+      <c r="U26" s="8"/>
+      <c r="V26" s="8"/>
+      <c r="W26" s="8"/>
+      <c r="X26" s="8"/>
+      <c r="Y26" s="8"/>
+      <c r="Z26" s="8"/>
+    </row>
+    <row r="27" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="str">
         <f aca="false">CLEAN(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B27,"--","-"),"ħ","h"),"å","a"),"æ","ae"),"Ġ","g"),"Č","c"),"ě","e"),"ň","n"),"š","s"),"ě","e"),"ň","n"),"ž","z"),"ř","r"),"č","c"),"ġ","g"),"Ñ","N"),"À","A"),"Á","A"),"Â","A"),"Ã","A"),"Ä","A"),"Ç","C"),"È","E"),"É","E"),"Ê","E"),"Ë","E"),"Ì","I"),"Í","I"),"Î","I"),"Ï","I"),"Ò","O"),"Ó","O"),"Ô","O"),"Õ","O"),"Ö","O"),"Š","S"),"Ú","U"),"Û","U"),"Ü","U"),"Ù","U"),"Ý","Y"),"Ÿ","Y"),"Ž","Z"),"/",""),"\","")," ",""),",",""),"%",""),"®",""),"&amp;",""),"*",""),"+",""),":",""),"#",""),"-",""),"&lt;",""),"&gt;",""))</f>
         <v/>
@@ -2642,23 +2678,23 @@
         <f aca="false">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(REPLACE(PROPER(C27),1,1,LOWER(LEFT(C27,1))),"(",""),")",""),"á","a"),"é","e"),"í","i"),"ó","o"),"ú","u"),"ã","a"),"ê","e"),"â","a"),"é","e"),"è","e"),"î","i"),"ï","i"),"ç","c"),"ä","a"),"ö","o"),"ü","u"),"ß","ss"),"ş","s"),"ı","i"),"ğ","g"),"ę","e"),"ł","l"),"ń","n"),"ś","s"),"ż","z"),"ã","a"),"ầ","a"),"à","a"),"ậ","a"),"đ","d"),"ế","e"),"ì","i"),"í","i"),"ổ","o"),"ô","o"),"ư","u"),"ả","a"),"ế","e"),"ĩ","i"),"ợ","o"),"ồ","o"),"ạ","a"),"ứ","u"),"ý","y"),"ạ","a"),"é","e"),"ỳ","y"),"ế","e"),"ể","e"),"ệ","e"),"ù","u"),"ë","e"),".",""),"Ġ","g"),"ø","o"),"ñ","n"),"'",""),"ō","o")</f>
         <v/>
       </c>
-      <c r="E27" s="11"/>
-      <c r="I27" s="11"/>
-      <c r="J27" s="8"/>
-      <c r="O27" s="9"/>
-      <c r="P27" s="9"/>
-      <c r="Q27" s="9"/>
-      <c r="R27" s="9"/>
-      <c r="S27" s="9"/>
-      <c r="T27" s="9"/>
-      <c r="U27" s="9"/>
-      <c r="V27" s="9"/>
-      <c r="W27" s="9"/>
-      <c r="X27" s="9"/>
-      <c r="Y27" s="9"/>
-      <c r="Z27" s="9"/>
-    </row>
-    <row r="28" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E27" s="10"/>
+      <c r="I27" s="10"/>
+      <c r="J27" s="3"/>
+      <c r="O27" s="8"/>
+      <c r="P27" s="8"/>
+      <c r="Q27" s="8"/>
+      <c r="R27" s="8"/>
+      <c r="S27" s="8"/>
+      <c r="T27" s="8"/>
+      <c r="U27" s="8"/>
+      <c r="V27" s="8"/>
+      <c r="W27" s="8"/>
+      <c r="X27" s="8"/>
+      <c r="Y27" s="8"/>
+      <c r="Z27" s="8"/>
+    </row>
+    <row r="28" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="str">
         <f aca="false">CLEAN(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B28,"--","-"),"ħ","h"),"å","a"),"æ","ae"),"Ġ","g"),"Č","c"),"ě","e"),"ň","n"),"š","s"),"ě","e"),"ň","n"),"ž","z"),"ř","r"),"č","c"),"ġ","g"),"Ñ","N"),"À","A"),"Á","A"),"Â","A"),"Ã","A"),"Ä","A"),"Ç","C"),"È","E"),"É","E"),"Ê","E"),"Ë","E"),"Ì","I"),"Í","I"),"Î","I"),"Ï","I"),"Ò","O"),"Ó","O"),"Ô","O"),"Õ","O"),"Ö","O"),"Š","S"),"Ú","U"),"Û","U"),"Ü","U"),"Ù","U"),"Ý","Y"),"Ÿ","Y"),"Ž","Z"),"/",""),"\","")," ",""),",",""),"%",""),"®",""),"&amp;",""),"*",""),"+",""),":",""),"#",""),"-",""),"&lt;",""),"&gt;",""))</f>
         <v/>
@@ -2667,23 +2703,23 @@
         <f aca="false">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(REPLACE(PROPER(C28),1,1,LOWER(LEFT(C28,1))),"(",""),")",""),"á","a"),"é","e"),"í","i"),"ó","o"),"ú","u"),"ã","a"),"ê","e"),"â","a"),"é","e"),"è","e"),"î","i"),"ï","i"),"ç","c"),"ä","a"),"ö","o"),"ü","u"),"ß","ss"),"ş","s"),"ı","i"),"ğ","g"),"ę","e"),"ł","l"),"ń","n"),"ś","s"),"ż","z"),"ã","a"),"ầ","a"),"à","a"),"ậ","a"),"đ","d"),"ế","e"),"ì","i"),"í","i"),"ổ","o"),"ô","o"),"ư","u"),"ả","a"),"ế","e"),"ĩ","i"),"ợ","o"),"ồ","o"),"ạ","a"),"ứ","u"),"ý","y"),"ạ","a"),"é","e"),"ỳ","y"),"ế","e"),"ể","e"),"ệ","e"),"ù","u"),"ë","e"),".",""),"Ġ","g"),"ø","o"),"ñ","n"),"'",""),"ō","o")</f>
         <v/>
       </c>
-      <c r="E28" s="11"/>
-      <c r="I28" s="11"/>
-      <c r="J28" s="8"/>
-      <c r="O28" s="9"/>
-      <c r="P28" s="9"/>
-      <c r="Q28" s="9"/>
-      <c r="R28" s="9"/>
-      <c r="S28" s="9"/>
-      <c r="T28" s="9"/>
-      <c r="U28" s="9"/>
-      <c r="V28" s="9"/>
-      <c r="W28" s="9"/>
-      <c r="X28" s="9"/>
-      <c r="Y28" s="9"/>
-      <c r="Z28" s="9"/>
-    </row>
-    <row r="29" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E28" s="10"/>
+      <c r="I28" s="10"/>
+      <c r="J28" s="3"/>
+      <c r="O28" s="8"/>
+      <c r="P28" s="8"/>
+      <c r="Q28" s="8"/>
+      <c r="R28" s="8"/>
+      <c r="S28" s="8"/>
+      <c r="T28" s="8"/>
+      <c r="U28" s="8"/>
+      <c r="V28" s="8"/>
+      <c r="W28" s="8"/>
+      <c r="X28" s="8"/>
+      <c r="Y28" s="8"/>
+      <c r="Z28" s="8"/>
+    </row>
+    <row r="29" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="str">
         <f aca="false">CLEAN(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B29,"--","-"),"ħ","h"),"å","a"),"æ","ae"),"Ġ","g"),"Č","c"),"ě","e"),"ň","n"),"š","s"),"ě","e"),"ň","n"),"ž","z"),"ř","r"),"č","c"),"ġ","g"),"Ñ","N"),"À","A"),"Á","A"),"Â","A"),"Ã","A"),"Ä","A"),"Ç","C"),"È","E"),"É","E"),"Ê","E"),"Ë","E"),"Ì","I"),"Í","I"),"Î","I"),"Ï","I"),"Ò","O"),"Ó","O"),"Ô","O"),"Õ","O"),"Ö","O"),"Š","S"),"Ú","U"),"Û","U"),"Ü","U"),"Ù","U"),"Ý","Y"),"Ÿ","Y"),"Ž","Z"),"/",""),"\","")," ",""),",",""),"%",""),"®",""),"&amp;",""),"*",""),"+",""),":",""),"#",""),"-",""),"&lt;",""),"&gt;",""))</f>
         <v/>
@@ -2692,23 +2728,23 @@
         <f aca="false">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(REPLACE(PROPER(C29),1,1,LOWER(LEFT(C29,1))),"(",""),")",""),"á","a"),"é","e"),"í","i"),"ó","o"),"ú","u"),"ã","a"),"ê","e"),"â","a"),"é","e"),"è","e"),"î","i"),"ï","i"),"ç","c"),"ä","a"),"ö","o"),"ü","u"),"ß","ss"),"ş","s"),"ı","i"),"ğ","g"),"ę","e"),"ł","l"),"ń","n"),"ś","s"),"ż","z"),"ã","a"),"ầ","a"),"à","a"),"ậ","a"),"đ","d"),"ế","e"),"ì","i"),"í","i"),"ổ","o"),"ô","o"),"ư","u"),"ả","a"),"ế","e"),"ĩ","i"),"ợ","o"),"ồ","o"),"ạ","a"),"ứ","u"),"ý","y"),"ạ","a"),"é","e"),"ỳ","y"),"ế","e"),"ể","e"),"ệ","e"),"ù","u"),"ë","e"),".",""),"Ġ","g"),"ø","o"),"ñ","n"),"'",""),"ō","o")</f>
         <v/>
       </c>
-      <c r="E29" s="11"/>
-      <c r="I29" s="11"/>
-      <c r="J29" s="8"/>
-      <c r="O29" s="9"/>
-      <c r="P29" s="9"/>
-      <c r="Q29" s="9"/>
-      <c r="R29" s="9"/>
-      <c r="S29" s="9"/>
-      <c r="T29" s="9"/>
-      <c r="U29" s="9"/>
-      <c r="V29" s="9"/>
-      <c r="W29" s="9"/>
-      <c r="X29" s="9"/>
-      <c r="Y29" s="9"/>
-      <c r="Z29" s="9"/>
-    </row>
-    <row r="30" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E29" s="10"/>
+      <c r="I29" s="10"/>
+      <c r="J29" s="3"/>
+      <c r="O29" s="8"/>
+      <c r="P29" s="8"/>
+      <c r="Q29" s="8"/>
+      <c r="R29" s="8"/>
+      <c r="S29" s="8"/>
+      <c r="T29" s="8"/>
+      <c r="U29" s="8"/>
+      <c r="V29" s="8"/>
+      <c r="W29" s="8"/>
+      <c r="X29" s="8"/>
+      <c r="Y29" s="8"/>
+      <c r="Z29" s="8"/>
+    </row>
+    <row r="30" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="str">
         <f aca="false">CLEAN(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B30,"--","-"),"ħ","h"),"å","a"),"æ","ae"),"Ġ","g"),"Č","c"),"ě","e"),"ň","n"),"š","s"),"ě","e"),"ň","n"),"ž","z"),"ř","r"),"č","c"),"ġ","g"),"Ñ","N"),"À","A"),"Á","A"),"Â","A"),"Ã","A"),"Ä","A"),"Ç","C"),"È","E"),"É","E"),"Ê","E"),"Ë","E"),"Ì","I"),"Í","I"),"Î","I"),"Ï","I"),"Ò","O"),"Ó","O"),"Ô","O"),"Õ","O"),"Ö","O"),"Š","S"),"Ú","U"),"Û","U"),"Ü","U"),"Ù","U"),"Ý","Y"),"Ÿ","Y"),"Ž","Z"),"/",""),"\","")," ",""),",",""),"%",""),"®",""),"&amp;",""),"*",""),"+",""),":",""),"#",""),"-",""),"&lt;",""),"&gt;",""))</f>
         <v/>
@@ -2717,23 +2753,23 @@
         <f aca="false">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(REPLACE(PROPER(C30),1,1,LOWER(LEFT(C30,1))),"(",""),")",""),"á","a"),"é","e"),"í","i"),"ó","o"),"ú","u"),"ã","a"),"ê","e"),"â","a"),"é","e"),"è","e"),"î","i"),"ï","i"),"ç","c"),"ä","a"),"ö","o"),"ü","u"),"ß","ss"),"ş","s"),"ı","i"),"ğ","g"),"ę","e"),"ł","l"),"ń","n"),"ś","s"),"ż","z"),"ã","a"),"ầ","a"),"à","a"),"ậ","a"),"đ","d"),"ế","e"),"ì","i"),"í","i"),"ổ","o"),"ô","o"),"ư","u"),"ả","a"),"ế","e"),"ĩ","i"),"ợ","o"),"ồ","o"),"ạ","a"),"ứ","u"),"ý","y"),"ạ","a"),"é","e"),"ỳ","y"),"ế","e"),"ể","e"),"ệ","e"),"ù","u"),"ë","e"),".",""),"Ġ","g"),"ø","o"),"ñ","n"),"'",""),"ō","o")</f>
         <v/>
       </c>
-      <c r="E30" s="11"/>
-      <c r="I30" s="11"/>
-      <c r="J30" s="8"/>
-      <c r="O30" s="9"/>
-      <c r="P30" s="9"/>
-      <c r="Q30" s="9"/>
-      <c r="R30" s="9"/>
-      <c r="S30" s="9"/>
-      <c r="T30" s="9"/>
-      <c r="U30" s="9"/>
-      <c r="V30" s="9"/>
-      <c r="W30" s="9"/>
-      <c r="X30" s="9"/>
-      <c r="Y30" s="9"/>
-      <c r="Z30" s="9"/>
-    </row>
-    <row r="31" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E30" s="10"/>
+      <c r="I30" s="10"/>
+      <c r="J30" s="3"/>
+      <c r="O30" s="8"/>
+      <c r="P30" s="8"/>
+      <c r="Q30" s="8"/>
+      <c r="R30" s="8"/>
+      <c r="S30" s="8"/>
+      <c r="T30" s="8"/>
+      <c r="U30" s="8"/>
+      <c r="V30" s="8"/>
+      <c r="W30" s="8"/>
+      <c r="X30" s="8"/>
+      <c r="Y30" s="8"/>
+      <c r="Z30" s="8"/>
+    </row>
+    <row r="31" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="str">
         <f aca="false">CLEAN(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B31,"--","-"),"ħ","h"),"å","a"),"æ","ae"),"Ġ","g"),"Č","c"),"ě","e"),"ň","n"),"š","s"),"ě","e"),"ň","n"),"ž","z"),"ř","r"),"č","c"),"ġ","g"),"Ñ","N"),"À","A"),"Á","A"),"Â","A"),"Ã","A"),"Ä","A"),"Ç","C"),"È","E"),"É","E"),"Ê","E"),"Ë","E"),"Ì","I"),"Í","I"),"Î","I"),"Ï","I"),"Ò","O"),"Ó","O"),"Ô","O"),"Õ","O"),"Ö","O"),"Š","S"),"Ú","U"),"Û","U"),"Ü","U"),"Ù","U"),"Ý","Y"),"Ÿ","Y"),"Ž","Z"),"/",""),"\","")," ",""),",",""),"%",""),"®",""),"&amp;",""),"*",""),"+",""),":",""),"#",""),"-",""),"&lt;",""),"&gt;",""))</f>
         <v/>
@@ -2742,22 +2778,22 @@
         <f aca="false">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(REPLACE(PROPER(C31),1,1,LOWER(LEFT(C31,1))),"(",""),")",""),"á","a"),"é","e"),"í","i"),"ó","o"),"ú","u"),"ã","a"),"ê","e"),"â","a"),"é","e"),"è","e"),"î","i"),"ï","i"),"ç","c"),"ä","a"),"ö","o"),"ü","u"),"ß","ss"),"ş","s"),"ı","i"),"ğ","g"),"ę","e"),"ł","l"),"ń","n"),"ś","s"),"ż","z"),"ã","a"),"ầ","a"),"à","a"),"ậ","a"),"đ","d"),"ế","e"),"ì","i"),"í","i"),"ổ","o"),"ô","o"),"ư","u"),"ả","a"),"ế","e"),"ĩ","i"),"ợ","o"),"ồ","o"),"ạ","a"),"ứ","u"),"ý","y"),"ạ","a"),"é","e"),"ỳ","y"),"ế","e"),"ể","e"),"ệ","e"),"ù","u"),"ë","e"),".",""),"Ġ","g"),"ø","o"),"ñ","n"),"'",""),"ō","o")</f>
         <v/>
       </c>
-      <c r="E31" s="11"/>
-      <c r="I31" s="11"/>
-      <c r="O31" s="9"/>
-      <c r="P31" s="9"/>
-      <c r="Q31" s="9"/>
-      <c r="R31" s="9"/>
-      <c r="S31" s="9"/>
-      <c r="T31" s="9"/>
-      <c r="U31" s="9"/>
-      <c r="V31" s="9"/>
-      <c r="W31" s="9"/>
-      <c r="X31" s="9"/>
-      <c r="Y31" s="9"/>
-      <c r="Z31" s="9"/>
-    </row>
-    <row r="32" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E31" s="10"/>
+      <c r="I31" s="10"/>
+      <c r="O31" s="8"/>
+      <c r="P31" s="8"/>
+      <c r="Q31" s="8"/>
+      <c r="R31" s="8"/>
+      <c r="S31" s="8"/>
+      <c r="T31" s="8"/>
+      <c r="U31" s="8"/>
+      <c r="V31" s="8"/>
+      <c r="W31" s="8"/>
+      <c r="X31" s="8"/>
+      <c r="Y31" s="8"/>
+      <c r="Z31" s="8"/>
+    </row>
+    <row r="32" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="str">
         <f aca="false">CLEAN(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B32,"--","-"),"ħ","h"),"å","a"),"æ","ae"),"Ġ","g"),"Č","c"),"ě","e"),"ň","n"),"š","s"),"ě","e"),"ň","n"),"ž","z"),"ř","r"),"č","c"),"ġ","g"),"Ñ","N"),"À","A"),"Á","A"),"Â","A"),"Ã","A"),"Ä","A"),"Ç","C"),"È","E"),"É","E"),"Ê","E"),"Ë","E"),"Ì","I"),"Í","I"),"Î","I"),"Ï","I"),"Ò","O"),"Ó","O"),"Ô","O"),"Õ","O"),"Ö","O"),"Š","S"),"Ú","U"),"Û","U"),"Ü","U"),"Ù","U"),"Ý","Y"),"Ÿ","Y"),"Ž","Z"),"/",""),"\","")," ",""),",",""),"%",""),"®",""),"&amp;",""),"*",""),"+",""),":",""),"#",""),"-",""),"&lt;",""),"&gt;",""))</f>
         <v/>
@@ -2766,23 +2802,23 @@
         <f aca="false">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(REPLACE(PROPER(C32),1,1,LOWER(LEFT(C32,1))),"(",""),")",""),"á","a"),"é","e"),"í","i"),"ó","o"),"ú","u"),"ã","a"),"ê","e"),"â","a"),"é","e"),"è","e"),"î","i"),"ï","i"),"ç","c"),"ä","a"),"ö","o"),"ü","u"),"ß","ss"),"ş","s"),"ı","i"),"ğ","g"),"ę","e"),"ł","l"),"ń","n"),"ś","s"),"ż","z"),"ã","a"),"ầ","a"),"à","a"),"ậ","a"),"đ","d"),"ế","e"),"ì","i"),"í","i"),"ổ","o"),"ô","o"),"ư","u"),"ả","a"),"ế","e"),"ĩ","i"),"ợ","o"),"ồ","o"),"ạ","a"),"ứ","u"),"ý","y"),"ạ","a"),"é","e"),"ỳ","y"),"ế","e"),"ể","e"),"ệ","e"),"ù","u"),"ë","e"),".",""),"Ġ","g"),"ø","o"),"ñ","n"),"'",""),"ō","o")</f>
         <v/>
       </c>
-      <c r="E32" s="11"/>
-      <c r="H32" s="8"/>
-      <c r="K32" s="8"/>
-      <c r="O32" s="9"/>
-      <c r="P32" s="9"/>
-      <c r="Q32" s="9"/>
-      <c r="R32" s="9"/>
-      <c r="S32" s="9"/>
-      <c r="T32" s="9"/>
-      <c r="U32" s="9"/>
-      <c r="V32" s="9"/>
-      <c r="W32" s="9"/>
-      <c r="X32" s="9"/>
-      <c r="Y32" s="9"/>
-      <c r="Z32" s="9"/>
-    </row>
-    <row r="33" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E32" s="10"/>
+      <c r="H32" s="3"/>
+      <c r="K32" s="3"/>
+      <c r="O32" s="8"/>
+      <c r="P32" s="8"/>
+      <c r="Q32" s="8"/>
+      <c r="R32" s="8"/>
+      <c r="S32" s="8"/>
+      <c r="T32" s="8"/>
+      <c r="U32" s="8"/>
+      <c r="V32" s="8"/>
+      <c r="W32" s="8"/>
+      <c r="X32" s="8"/>
+      <c r="Y32" s="8"/>
+      <c r="Z32" s="8"/>
+    </row>
+    <row r="33" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="str">
         <f aca="false">CLEAN(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B33,"--","-"),"ħ","h"),"å","a"),"æ","ae"),"Ġ","g"),"Č","c"),"ě","e"),"ň","n"),"š","s"),"ě","e"),"ň","n"),"ž","z"),"ř","r"),"č","c"),"ġ","g"),"Ñ","N"),"À","A"),"Á","A"),"Â","A"),"Ã","A"),"Ä","A"),"Ç","C"),"È","E"),"É","E"),"Ê","E"),"Ë","E"),"Ì","I"),"Í","I"),"Î","I"),"Ï","I"),"Ò","O"),"Ó","O"),"Ô","O"),"Õ","O"),"Ö","O"),"Š","S"),"Ú","U"),"Û","U"),"Ü","U"),"Ù","U"),"Ý","Y"),"Ÿ","Y"),"Ž","Z"),"/",""),"\","")," ",""),",",""),"%",""),"®",""),"&amp;",""),"*",""),"+",""),":",""),"#",""),"-",""),"&lt;",""),"&gt;",""))</f>
         <v/>
@@ -2791,25 +2827,25 @@
         <f aca="false">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(REPLACE(PROPER(C33),1,1,LOWER(LEFT(C33,1))),"(",""),")",""),"á","a"),"é","e"),"í","i"),"ó","o"),"ú","u"),"ã","a"),"ê","e"),"â","a"),"é","e"),"è","e"),"î","i"),"ï","i"),"ç","c"),"ä","a"),"ö","o"),"ü","u"),"ß","ss"),"ş","s"),"ı","i"),"ğ","g"),"ę","e"),"ł","l"),"ń","n"),"ś","s"),"ż","z"),"ã","a"),"ầ","a"),"à","a"),"ậ","a"),"đ","d"),"ế","e"),"ì","i"),"í","i"),"ổ","o"),"ô","o"),"ư","u"),"ả","a"),"ế","e"),"ĩ","i"),"ợ","o"),"ồ","o"),"ạ","a"),"ứ","u"),"ý","y"),"ạ","a"),"é","e"),"ỳ","y"),"ế","e"),"ể","e"),"ệ","e"),"ù","u"),"ë","e"),".",""),"Ġ","g"),"ø","o"),"ñ","n"),"'",""),"ō","o")</f>
         <v/>
       </c>
-      <c r="E33" s="11"/>
-      <c r="H33" s="8"/>
-      <c r="I33" s="11"/>
-      <c r="J33" s="8"/>
-      <c r="K33" s="8"/>
-      <c r="O33" s="9"/>
-      <c r="P33" s="9"/>
-      <c r="Q33" s="9"/>
-      <c r="R33" s="9"/>
-      <c r="S33" s="9"/>
-      <c r="T33" s="9"/>
-      <c r="U33" s="9"/>
-      <c r="V33" s="9"/>
-      <c r="W33" s="9"/>
-      <c r="X33" s="9"/>
-      <c r="Y33" s="9"/>
-      <c r="Z33" s="9"/>
-    </row>
-    <row r="34" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E33" s="10"/>
+      <c r="H33" s="3"/>
+      <c r="I33" s="10"/>
+      <c r="J33" s="3"/>
+      <c r="K33" s="3"/>
+      <c r="O33" s="8"/>
+      <c r="P33" s="8"/>
+      <c r="Q33" s="8"/>
+      <c r="R33" s="8"/>
+      <c r="S33" s="8"/>
+      <c r="T33" s="8"/>
+      <c r="U33" s="8"/>
+      <c r="V33" s="8"/>
+      <c r="W33" s="8"/>
+      <c r="X33" s="8"/>
+      <c r="Y33" s="8"/>
+      <c r="Z33" s="8"/>
+    </row>
+    <row r="34" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="str">
         <f aca="false">CLEAN(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B34,"--","-"),"ħ","h"),"å","a"),"æ","ae"),"Ġ","g"),"Č","c"),"ě","e"),"ň","n"),"š","s"),"ě","e"),"ň","n"),"ž","z"),"ř","r"),"č","c"),"ġ","g"),"Ñ","N"),"À","A"),"Á","A"),"Â","A"),"Ã","A"),"Ä","A"),"Ç","C"),"È","E"),"É","E"),"Ê","E"),"Ë","E"),"Ì","I"),"Í","I"),"Î","I"),"Ï","I"),"Ò","O"),"Ó","O"),"Ô","O"),"Õ","O"),"Ö","O"),"Š","S"),"Ú","U"),"Û","U"),"Ü","U"),"Ù","U"),"Ý","Y"),"Ÿ","Y"),"Ž","Z"),"/",""),"\","")," ",""),",",""),"%",""),"®",""),"&amp;",""),"*",""),"+",""),":",""),"#",""),"-",""),"&lt;",""),"&gt;",""))</f>
         <v/>
@@ -2818,24 +2854,24 @@
         <f aca="false">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(REPLACE(PROPER(C34),1,1,LOWER(LEFT(C34,1))),"(",""),")",""),"á","a"),"é","e"),"í","i"),"ó","o"),"ú","u"),"ã","a"),"ê","e"),"â","a"),"é","e"),"è","e"),"î","i"),"ï","i"),"ç","c"),"ä","a"),"ö","o"),"ü","u"),"ß","ss"),"ş","s"),"ı","i"),"ğ","g"),"ę","e"),"ł","l"),"ń","n"),"ś","s"),"ż","z"),"ã","a"),"ầ","a"),"à","a"),"ậ","a"),"đ","d"),"ế","e"),"ì","i"),"í","i"),"ổ","o"),"ô","o"),"ư","u"),"ả","a"),"ế","e"),"ĩ","i"),"ợ","o"),"ồ","o"),"ạ","a"),"ứ","u"),"ý","y"),"ạ","a"),"é","e"),"ỳ","y"),"ế","e"),"ể","e"),"ệ","e"),"ù","u"),"ë","e"),".",""),"Ġ","g"),"ø","o"),"ñ","n"),"'",""),"ō","o")</f>
         <v/>
       </c>
-      <c r="E34" s="11"/>
-      <c r="H34" s="8"/>
-      <c r="J34" s="8"/>
-      <c r="K34" s="8"/>
-      <c r="O34" s="9"/>
-      <c r="P34" s="9"/>
-      <c r="Q34" s="9"/>
-      <c r="R34" s="9"/>
-      <c r="S34" s="9"/>
-      <c r="T34" s="9"/>
-      <c r="U34" s="9"/>
-      <c r="V34" s="9"/>
-      <c r="W34" s="9"/>
-      <c r="X34" s="9"/>
-      <c r="Y34" s="9"/>
-      <c r="Z34" s="9"/>
-    </row>
-    <row r="35" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E34" s="10"/>
+      <c r="H34" s="3"/>
+      <c r="J34" s="3"/>
+      <c r="K34" s="3"/>
+      <c r="O34" s="8"/>
+      <c r="P34" s="8"/>
+      <c r="Q34" s="8"/>
+      <c r="R34" s="8"/>
+      <c r="S34" s="8"/>
+      <c r="T34" s="8"/>
+      <c r="U34" s="8"/>
+      <c r="V34" s="8"/>
+      <c r="W34" s="8"/>
+      <c r="X34" s="8"/>
+      <c r="Y34" s="8"/>
+      <c r="Z34" s="8"/>
+    </row>
+    <row r="35" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="str">
         <f aca="false">CLEAN(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B35,"--","-"),"ħ","h"),"å","a"),"æ","ae"),"Ġ","g"),"Č","c"),"ě","e"),"ň","n"),"š","s"),"ě","e"),"ň","n"),"ž","z"),"ř","r"),"č","c"),"ġ","g"),"Ñ","N"),"À","A"),"Á","A"),"Â","A"),"Ã","A"),"Ä","A"),"Ç","C"),"È","E"),"É","E"),"Ê","E"),"Ë","E"),"Ì","I"),"Í","I"),"Î","I"),"Ï","I"),"Ò","O"),"Ó","O"),"Ô","O"),"Õ","O"),"Ö","O"),"Š","S"),"Ú","U"),"Û","U"),"Ü","U"),"Ù","U"),"Ý","Y"),"Ÿ","Y"),"Ž","Z"),"/",""),"\","")," ",""),",",""),"%",""),"®",""),"&amp;",""),"*",""),"+",""),":",""),"#",""),"-",""),"&lt;",""),"&gt;",""))</f>
         <v/>
@@ -2844,24 +2880,24 @@
         <f aca="false">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(REPLACE(PROPER(C35),1,1,LOWER(LEFT(C35,1))),"(",""),")",""),"á","a"),"é","e"),"í","i"),"ó","o"),"ú","u"),"ã","a"),"ê","e"),"â","a"),"é","e"),"è","e"),"î","i"),"ï","i"),"ç","c"),"ä","a"),"ö","o"),"ü","u"),"ß","ss"),"ş","s"),"ı","i"),"ğ","g"),"ę","e"),"ł","l"),"ń","n"),"ś","s"),"ż","z"),"ã","a"),"ầ","a"),"à","a"),"ậ","a"),"đ","d"),"ế","e"),"ì","i"),"í","i"),"ổ","o"),"ô","o"),"ư","u"),"ả","a"),"ế","e"),"ĩ","i"),"ợ","o"),"ồ","o"),"ạ","a"),"ứ","u"),"ý","y"),"ạ","a"),"é","e"),"ỳ","y"),"ế","e"),"ể","e"),"ệ","e"),"ù","u"),"ë","e"),".",""),"Ġ","g"),"ø","o"),"ñ","n"),"'",""),"ō","o")</f>
         <v/>
       </c>
-      <c r="E35" s="11"/>
-      <c r="H35" s="8"/>
-      <c r="J35" s="8"/>
-      <c r="K35" s="8"/>
-      <c r="O35" s="9"/>
-      <c r="P35" s="9"/>
-      <c r="Q35" s="9"/>
-      <c r="R35" s="9"/>
-      <c r="S35" s="9"/>
-      <c r="T35" s="9"/>
-      <c r="U35" s="9"/>
-      <c r="V35" s="9"/>
-      <c r="W35" s="9"/>
-      <c r="X35" s="9"/>
-      <c r="Y35" s="9"/>
-      <c r="Z35" s="9"/>
-    </row>
-    <row r="36" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E35" s="10"/>
+      <c r="H35" s="3"/>
+      <c r="J35" s="3"/>
+      <c r="K35" s="3"/>
+      <c r="O35" s="8"/>
+      <c r="P35" s="8"/>
+      <c r="Q35" s="8"/>
+      <c r="R35" s="8"/>
+      <c r="S35" s="8"/>
+      <c r="T35" s="8"/>
+      <c r="U35" s="8"/>
+      <c r="V35" s="8"/>
+      <c r="W35" s="8"/>
+      <c r="X35" s="8"/>
+      <c r="Y35" s="8"/>
+      <c r="Z35" s="8"/>
+    </row>
+    <row r="36" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="str">
         <f aca="false">CLEAN(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B36,"--","-"),"ħ","h"),"å","a"),"æ","ae"),"Ġ","g"),"Č","c"),"ě","e"),"ň","n"),"š","s"),"ě","e"),"ň","n"),"ž","z"),"ř","r"),"č","c"),"ġ","g"),"Ñ","N"),"À","A"),"Á","A"),"Â","A"),"Ã","A"),"Ä","A"),"Ç","C"),"È","E"),"É","E"),"Ê","E"),"Ë","E"),"Ì","I"),"Í","I"),"Î","I"),"Ï","I"),"Ò","O"),"Ó","O"),"Ô","O"),"Õ","O"),"Ö","O"),"Š","S"),"Ú","U"),"Û","U"),"Ü","U"),"Ù","U"),"Ý","Y"),"Ÿ","Y"),"Ž","Z"),"/",""),"\","")," ",""),",",""),"%",""),"®",""),"&amp;",""),"*",""),"+",""),":",""),"#",""),"-",""),"&lt;",""),"&gt;",""))</f>
         <v/>
@@ -2870,24 +2906,24 @@
         <f aca="false">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(REPLACE(PROPER(C36),1,1,LOWER(LEFT(C36,1))),"(",""),")",""),"á","a"),"é","e"),"í","i"),"ó","o"),"ú","u"),"ã","a"),"ê","e"),"â","a"),"é","e"),"è","e"),"î","i"),"ï","i"),"ç","c"),"ä","a"),"ö","o"),"ü","u"),"ß","ss"),"ş","s"),"ı","i"),"ğ","g"),"ę","e"),"ł","l"),"ń","n"),"ś","s"),"ż","z"),"ã","a"),"ầ","a"),"à","a"),"ậ","a"),"đ","d"),"ế","e"),"ì","i"),"í","i"),"ổ","o"),"ô","o"),"ư","u"),"ả","a"),"ế","e"),"ĩ","i"),"ợ","o"),"ồ","o"),"ạ","a"),"ứ","u"),"ý","y"),"ạ","a"),"é","e"),"ỳ","y"),"ế","e"),"ể","e"),"ệ","e"),"ù","u"),"ë","e"),".",""),"Ġ","g"),"ø","o"),"ñ","n"),"'",""),"ō","o")</f>
         <v/>
       </c>
-      <c r="H36" s="8"/>
-      <c r="I36" s="11"/>
-      <c r="J36" s="8"/>
-      <c r="K36" s="8"/>
-      <c r="O36" s="9"/>
-      <c r="P36" s="9"/>
-      <c r="Q36" s="9"/>
-      <c r="R36" s="9"/>
-      <c r="S36" s="9"/>
-      <c r="T36" s="9"/>
-      <c r="U36" s="9"/>
-      <c r="V36" s="9"/>
-      <c r="W36" s="9"/>
-      <c r="X36" s="9"/>
-      <c r="Y36" s="9"/>
-      <c r="Z36" s="9"/>
-    </row>
-    <row r="37" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H36" s="3"/>
+      <c r="I36" s="10"/>
+      <c r="J36" s="3"/>
+      <c r="K36" s="3"/>
+      <c r="O36" s="8"/>
+      <c r="P36" s="8"/>
+      <c r="Q36" s="8"/>
+      <c r="R36" s="8"/>
+      <c r="S36" s="8"/>
+      <c r="T36" s="8"/>
+      <c r="U36" s="8"/>
+      <c r="V36" s="8"/>
+      <c r="W36" s="8"/>
+      <c r="X36" s="8"/>
+      <c r="Y36" s="8"/>
+      <c r="Z36" s="8"/>
+    </row>
+    <row r="37" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="str">
         <f aca="false">CLEAN(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B37,"--","-"),"ħ","h"),"å","a"),"æ","ae"),"Ġ","g"),"Č","c"),"ě","e"),"ň","n"),"š","s"),"ě","e"),"ň","n"),"ž","z"),"ř","r"),"č","c"),"ġ","g"),"Ñ","N"),"À","A"),"Á","A"),"Â","A"),"Ã","A"),"Ä","A"),"Ç","C"),"È","E"),"É","E"),"Ê","E"),"Ë","E"),"Ì","I"),"Í","I"),"Î","I"),"Ï","I"),"Ò","O"),"Ó","O"),"Ô","O"),"Õ","O"),"Ö","O"),"Š","S"),"Ú","U"),"Û","U"),"Ü","U"),"Ù","U"),"Ý","Y"),"Ÿ","Y"),"Ž","Z"),"/",""),"\","")," ",""),",",""),"%",""),"®",""),"&amp;",""),"*",""),"+",""),":",""),"#",""),"-",""),"&lt;",""),"&gt;",""))</f>
         <v/>
@@ -2896,24 +2932,24 @@
         <f aca="false">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(REPLACE(PROPER(C37),1,1,LOWER(LEFT(C37,1))),"(",""),")",""),"á","a"),"é","e"),"í","i"),"ó","o"),"ú","u"),"ã","a"),"ê","e"),"â","a"),"é","e"),"è","e"),"î","i"),"ï","i"),"ç","c"),"ä","a"),"ö","o"),"ü","u"),"ß","ss"),"ş","s"),"ı","i"),"ğ","g"),"ę","e"),"ł","l"),"ń","n"),"ś","s"),"ż","z"),"ã","a"),"ầ","a"),"à","a"),"ậ","a"),"đ","d"),"ế","e"),"ì","i"),"í","i"),"ổ","o"),"ô","o"),"ư","u"),"ả","a"),"ế","e"),"ĩ","i"),"ợ","o"),"ồ","o"),"ạ","a"),"ứ","u"),"ý","y"),"ạ","a"),"é","e"),"ỳ","y"),"ế","e"),"ể","e"),"ệ","e"),"ù","u"),"ë","e"),".",""),"Ġ","g"),"ø","o"),"ñ","n"),"'",""),"ō","o")</f>
         <v/>
       </c>
-      <c r="H37" s="8"/>
-      <c r="I37" s="11"/>
-      <c r="J37" s="8"/>
-      <c r="K37" s="8"/>
-      <c r="O37" s="9"/>
-      <c r="P37" s="9"/>
-      <c r="Q37" s="9"/>
-      <c r="R37" s="9"/>
-      <c r="S37" s="9"/>
-      <c r="T37" s="9"/>
-      <c r="U37" s="9"/>
-      <c r="V37" s="9"/>
-      <c r="W37" s="9"/>
-      <c r="X37" s="9"/>
-      <c r="Y37" s="9"/>
-      <c r="Z37" s="9"/>
-    </row>
-    <row r="38" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H37" s="3"/>
+      <c r="I37" s="10"/>
+      <c r="J37" s="3"/>
+      <c r="K37" s="3"/>
+      <c r="O37" s="8"/>
+      <c r="P37" s="8"/>
+      <c r="Q37" s="8"/>
+      <c r="R37" s="8"/>
+      <c r="S37" s="8"/>
+      <c r="T37" s="8"/>
+      <c r="U37" s="8"/>
+      <c r="V37" s="8"/>
+      <c r="W37" s="8"/>
+      <c r="X37" s="8"/>
+      <c r="Y37" s="8"/>
+      <c r="Z37" s="8"/>
+    </row>
+    <row r="38" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="str">
         <f aca="false">CLEAN(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B38,"--","-"),"ħ","h"),"å","a"),"æ","ae"),"Ġ","g"),"Č","c"),"ě","e"),"ň","n"),"š","s"),"ě","e"),"ň","n"),"ž","z"),"ř","r"),"č","c"),"ġ","g"),"Ñ","N"),"À","A"),"Á","A"),"Â","A"),"Ã","A"),"Ä","A"),"Ç","C"),"È","E"),"É","E"),"Ê","E"),"Ë","E"),"Ì","I"),"Í","I"),"Î","I"),"Ï","I"),"Ò","O"),"Ó","O"),"Ô","O"),"Õ","O"),"Ö","O"),"Š","S"),"Ú","U"),"Û","U"),"Ü","U"),"Ù","U"),"Ý","Y"),"Ÿ","Y"),"Ž","Z"),"/",""),"\","")," ",""),",",""),"%",""),"®",""),"&amp;",""),"*",""),"+",""),":",""),"#",""),"-",""),"&lt;",""),"&gt;",""))</f>
         <v/>
@@ -2922,119 +2958,118 @@
         <f aca="false">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(REPLACE(PROPER(C38),1,1,LOWER(LEFT(C38,1))),"(",""),")",""),"á","a"),"é","e"),"í","i"),"ó","o"),"ú","u"),"ã","a"),"ê","e"),"â","a"),"é","e"),"è","e"),"î","i"),"ï","i"),"ç","c"),"ä","a"),"ö","o"),"ü","u"),"ß","ss"),"ş","s"),"ı","i"),"ğ","g"),"ę","e"),"ł","l"),"ń","n"),"ś","s"),"ż","z"),"ã","a"),"ầ","a"),"à","a"),"ậ","a"),"đ","d"),"ế","e"),"ì","i"),"í","i"),"ổ","o"),"ô","o"),"ư","u"),"ả","a"),"ế","e"),"ĩ","i"),"ợ","o"),"ồ","o"),"ạ","a"),"ứ","u"),"ý","y"),"ạ","a"),"é","e"),"ỳ","y"),"ế","e"),"ể","e"),"ệ","e"),"ù","u"),"ë","e"),".",""),"Ġ","g"),"ø","o"),"ñ","n"),"'",""),"ō","o")</f>
         <v/>
       </c>
-      <c r="E38" s="11"/>
-      <c r="I38" s="11"/>
-      <c r="J38" s="8"/>
-      <c r="M38" s="14"/>
-      <c r="N38" s="14"/>
-      <c r="O38" s="9"/>
-      <c r="P38" s="9"/>
-      <c r="Q38" s="9"/>
-      <c r="R38" s="9"/>
-      <c r="S38" s="9"/>
-      <c r="T38" s="9"/>
-      <c r="U38" s="9"/>
-      <c r="V38" s="9"/>
-      <c r="W38" s="9"/>
-      <c r="X38" s="9"/>
-      <c r="Y38" s="9"/>
-      <c r="Z38" s="9"/>
-    </row>
-    <row r="39" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E38" s="10"/>
+      <c r="I38" s="10"/>
+      <c r="J38" s="3"/>
+      <c r="M38" s="3"/>
+      <c r="N38" s="3"/>
+      <c r="O38" s="8"/>
+      <c r="P38" s="8"/>
+      <c r="Q38" s="8"/>
+      <c r="R38" s="8"/>
+      <c r="S38" s="8"/>
+      <c r="T38" s="8"/>
+      <c r="U38" s="8"/>
+      <c r="V38" s="8"/>
+      <c r="W38" s="8"/>
+      <c r="X38" s="8"/>
+      <c r="Y38" s="8"/>
+      <c r="Z38" s="8"/>
+    </row>
+    <row r="39" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B39" s="2" t="str">
         <f aca="false">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(REPLACE(PROPER(C39),1,1,LOWER(LEFT(C39,1))),"(",""),")",""),"á","a"),"é","e"),"í","i"),"ó","o"),"ú","u"),"ã","a"),"ê","e"),"â","a"),"é","e"),"è","e"),"î","i"),"ï","i"),"ç","c"),"ä","a"),"ö","o"),"ü","u"),"ß","ss"),"ş","s"),"ı","i"),"ğ","g"),"ę","e"),"ł","l"),"ń","n"),"ś","s"),"ż","z"),"ã","a"),"ầ","a"),"à","a"),"ậ","a"),"đ","d"),"ế","e"),"ì","i"),"í","i"),"ổ","o"),"ô","o"),"ư","u"),"ả","a"),"ế","e"),"ĩ","i"),"ợ","o"),"ồ","o"),"ạ","a"),"ứ","u"),"ý","y"),"ạ","a"),"é","e"),"ỳ","y"),"ế","e"),"ể","e"),"ệ","e"),"ù","u"),"ë","e"),".",""),"Ġ","g"),"ø","o"),"ñ","n"),"'",""),"ō","o")</f>
         <v/>
       </c>
-      <c r="E39" s="11"/>
-      <c r="H39" s="8"/>
-      <c r="I39" s="11"/>
-      <c r="M39" s="14"/>
-      <c r="N39" s="14"/>
-      <c r="O39" s="9"/>
-      <c r="P39" s="9"/>
-      <c r="Q39" s="9"/>
-      <c r="R39" s="9"/>
-      <c r="S39" s="9"/>
-      <c r="T39" s="9"/>
-      <c r="U39" s="9"/>
-      <c r="V39" s="9"/>
-      <c r="W39" s="9"/>
-      <c r="X39" s="9"/>
-      <c r="Y39" s="9"/>
-      <c r="Z39" s="9"/>
-    </row>
-    <row r="40" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E39" s="10"/>
+      <c r="H39" s="3"/>
+      <c r="I39" s="10"/>
+      <c r="M39" s="3"/>
+      <c r="N39" s="3"/>
+      <c r="O39" s="8"/>
+      <c r="P39" s="8"/>
+      <c r="Q39" s="8"/>
+      <c r="R39" s="8"/>
+      <c r="S39" s="8"/>
+      <c r="T39" s="8"/>
+      <c r="U39" s="8"/>
+      <c r="V39" s="8"/>
+      <c r="W39" s="8"/>
+      <c r="X39" s="8"/>
+      <c r="Y39" s="8"/>
+      <c r="Z39" s="8"/>
+    </row>
+    <row r="40" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B40" s="2" t="str">
         <f aca="false">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(REPLACE(PROPER(C40),1,1,LOWER(LEFT(C40,1))),"(",""),")",""),"á","a"),"é","e"),"í","i"),"ó","o"),"ú","u"),"ã","a"),"ê","e"),"â","a"),"é","e"),"è","e"),"î","i"),"ï","i"),"ç","c"),"ä","a"),"ö","o"),"ü","u"),"ß","ss"),"ş","s"),"ı","i"),"ğ","g"),"ę","e"),"ł","l"),"ń","n"),"ś","s"),"ż","z"),"ã","a"),"ầ","a"),"à","a"),"ậ","a"),"đ","d"),"ế","e"),"ì","i"),"í","i"),"ổ","o"),"ô","o"),"ư","u"),"ả","a"),"ế","e"),"ĩ","i"),"ợ","o"),"ồ","o"),"ạ","a"),"ứ","u"),"ý","y"),"ạ","a"),"é","e"),"ỳ","y"),"ế","e"),"ể","e"),"ệ","e"),"ù","u"),"ë","e"),".",""),"Ġ","g"),"ø","o"),"ñ","n"),"'",""),"ō","o")</f>
         <v/>
       </c>
-      <c r="E40" s="11"/>
-      <c r="H40" s="8"/>
-      <c r="I40" s="11"/>
-      <c r="J40" s="8"/>
-      <c r="K40" s="8"/>
-      <c r="O40" s="9"/>
-      <c r="P40" s="9"/>
-      <c r="Q40" s="9"/>
-      <c r="R40" s="9"/>
-      <c r="S40" s="9"/>
-      <c r="T40" s="9"/>
-      <c r="U40" s="9"/>
-      <c r="V40" s="9"/>
-      <c r="W40" s="9"/>
-      <c r="X40" s="9"/>
-      <c r="Y40" s="9"/>
-      <c r="Z40" s="9"/>
-    </row>
-    <row r="41" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E40" s="10"/>
+      <c r="H40" s="3"/>
+      <c r="I40" s="10"/>
+      <c r="J40" s="3"/>
+      <c r="K40" s="3"/>
+      <c r="O40" s="8"/>
+      <c r="P40" s="8"/>
+      <c r="Q40" s="8"/>
+      <c r="R40" s="8"/>
+      <c r="S40" s="8"/>
+      <c r="T40" s="8"/>
+      <c r="U40" s="8"/>
+      <c r="V40" s="8"/>
+      <c r="W40" s="8"/>
+      <c r="X40" s="8"/>
+      <c r="Y40" s="8"/>
+      <c r="Z40" s="8"/>
+    </row>
+    <row r="41" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B41" s="2" t="str">
         <f aca="false">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(REPLACE(PROPER(C41),1,1,LOWER(LEFT(C41,1))),"(",""),")",""),"á","a"),"é","e"),"í","i"),"ó","o"),"ú","u"),"ã","a"),"ê","e"),"â","a"),"é","e"),"è","e"),"î","i"),"ï","i"),"ç","c"),"ä","a"),"ö","o"),"ü","u"),"ß","ss"),"ş","s"),"ı","i"),"ğ","g"),"ę","e"),"ł","l"),"ń","n"),"ś","s"),"ż","z"),"ã","a"),"ầ","a"),"à","a"),"ậ","a"),"đ","d"),"ế","e"),"ì","i"),"í","i"),"ổ","o"),"ô","o"),"ư","u"),"ả","a"),"ế","e"),"ĩ","i"),"ợ","o"),"ồ","o"),"ạ","a"),"ứ","u"),"ý","y"),"ạ","a"),"é","e"),"ỳ","y"),"ế","e"),"ể","e"),"ệ","e"),"ù","u"),"ë","e"),".",""),"Ġ","g"),"ø","o"),"ñ","n"),"'",""),"ō","o")</f>
         <v/>
       </c>
-      <c r="E41" s="11"/>
-      <c r="H41" s="8"/>
-      <c r="I41" s="11"/>
-      <c r="J41" s="8"/>
-      <c r="K41" s="8"/>
-      <c r="O41" s="9"/>
-      <c r="P41" s="9"/>
-      <c r="Q41" s="9"/>
-      <c r="R41" s="9"/>
-      <c r="S41" s="9"/>
-      <c r="T41" s="9"/>
-      <c r="U41" s="9"/>
-      <c r="V41" s="9"/>
-      <c r="W41" s="9"/>
-      <c r="X41" s="9"/>
-      <c r="Y41" s="9"/>
-      <c r="Z41" s="9"/>
-    </row>
-    <row r="42" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E41" s="10"/>
+      <c r="H41" s="3"/>
+      <c r="I41" s="10"/>
+      <c r="J41" s="3"/>
+      <c r="K41" s="3"/>
+      <c r="O41" s="8"/>
+      <c r="P41" s="8"/>
+      <c r="Q41" s="8"/>
+      <c r="R41" s="8"/>
+      <c r="S41" s="8"/>
+      <c r="T41" s="8"/>
+      <c r="U41" s="8"/>
+      <c r="V41" s="8"/>
+      <c r="W41" s="8"/>
+      <c r="X41" s="8"/>
+      <c r="Y41" s="8"/>
+      <c r="Z41" s="8"/>
+    </row>
+    <row r="42" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B42" s="2" t="str">
         <f aca="false">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(REPLACE(PROPER(C42),1,1,LOWER(LEFT(C42,1))),"(",""),")",""),"á","a"),"é","e"),"í","i"),"ó","o"),"ú","u"),"ã","a"),"ê","e"),"â","a"),"é","e"),"è","e"),"î","i"),"ï","i"),"ç","c"),"ä","a"),"ö","o"),"ü","u"),"ß","ss"),"ş","s"),"ı","i"),"ğ","g"),"ę","e"),"ł","l"),"ń","n"),"ś","s"),"ż","z"),"ã","a"),"ầ","a"),"à","a"),"ậ","a"),"đ","d"),"ế","e"),"ì","i"),"í","i"),"ổ","o"),"ô","o"),"ư","u"),"ả","a"),"ế","e"),"ĩ","i"),"ợ","o"),"ồ","o"),"ạ","a"),"ứ","u"),"ý","y"),"ạ","a"),"é","e"),"ỳ","y"),"ế","e"),"ể","e"),"ệ","e"),"ù","u"),"ë","e"),".",""),"Ġ","g"),"ø","o"),"ñ","n"),"'",""),"ō","o")</f>
         <v/>
       </c>
-      <c r="E42" s="11"/>
-      <c r="I42" s="11"/>
-      <c r="J42" s="8"/>
-      <c r="O42" s="9"/>
-      <c r="P42" s="9"/>
-      <c r="Q42" s="9"/>
-      <c r="R42" s="9"/>
-      <c r="S42" s="9"/>
-      <c r="T42" s="9"/>
-      <c r="U42" s="9"/>
-      <c r="V42" s="9"/>
-      <c r="W42" s="9"/>
-      <c r="X42" s="9"/>
-      <c r="Y42" s="9"/>
-      <c r="Z42" s="9"/>
-    </row>
-    <row r="271" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H271" s="8"/>
-      <c r="I271" s="8"/>
-      <c r="J271" s="8"/>
-      <c r="K271" s="8"/>
+      <c r="E42" s="10"/>
+      <c r="I42" s="10"/>
+      <c r="J42" s="3"/>
+      <c r="O42" s="8"/>
+      <c r="P42" s="8"/>
+      <c r="Q42" s="8"/>
+      <c r="R42" s="8"/>
+      <c r="S42" s="8"/>
+      <c r="T42" s="8"/>
+      <c r="U42" s="8"/>
+      <c r="V42" s="8"/>
+      <c r="W42" s="8"/>
+      <c r="X42" s="8"/>
+      <c r="Y42" s="8"/>
+      <c r="Z42" s="8"/>
+    </row>
+    <row r="271" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="H271" s="3"/>
+      <c r="J271" s="3"/>
+      <c r="K271" s="3"/>
     </row>
   </sheetData>
   <hyperlinks>
